--- a/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0A0119-4365-466F-964A-3DFE21864A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBFD637-FF7C-47C8-8004-E819EE7FF6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="2595" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14490" yWindow="8385" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>0.05</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12117,7 +12117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F800E73-75A4-4D1F-BCBA-6492AF8AC3AA}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C9"/>
     </sheetView>
   </sheetViews>

--- a/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBFD637-FF7C-47C8-8004-E819EE7FF6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2091AD-D2EC-4DAD-9E18-7F078FC8B5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14490" yWindow="8385" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -23366,7 +23366,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2091AD-D2EC-4DAD-9E18-7F078FC8B5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723FE5FB-D71C-43B0-8F5A-FC4487951976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14490" yWindow="8385" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="3330" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723FE5FB-D71C-43B0-8F5A-FC4487951976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490B017A-1263-49FB-8C4B-2AAA1BE6DEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="3330" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1275" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,99 +570,99 @@
       </c>
       <c r="B2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!B2</f>
-        <v>3.8750000000000009</v>
+        <v>3.1000000000000005</v>
       </c>
       <c r="C2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!C2</f>
-        <v>3.837209302325582</v>
+        <v>3.0697674418604657</v>
       </c>
       <c r="D2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!D2</f>
-        <v>3.6962209302325584</v>
+        <v>2.9569767441860466</v>
       </c>
       <c r="E2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!E2</f>
-        <v>3.629360465116279</v>
+        <v>2.9034883720930234</v>
       </c>
       <c r="F2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!F2</f>
-        <v>3.6031976744186043</v>
+        <v>2.8825581395348836</v>
       </c>
       <c r="G2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!G2</f>
-        <v>3.6569767441860468</v>
+        <v>2.9255813953488374</v>
       </c>
       <c r="H2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!H2</f>
-        <v>3.6250000000000004</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="I2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!I2</f>
-        <v>4.433139534883721</v>
+        <v>3.5465116279069768</v>
       </c>
       <c r="J2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!J2</f>
-        <v>4.7688953488372103</v>
+        <v>3.8151162790697679</v>
       </c>
       <c r="K2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!K2</f>
-        <v>4.7063953488372086</v>
+        <v>3.7651162790697672</v>
       </c>
       <c r="L2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!L2</f>
-        <v>4.6293604651162799</v>
+        <v>3.7034883720930236</v>
       </c>
       <c r="M2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!M2</f>
-        <v>4.6860465116279073</v>
+        <v>3.7488372093023261</v>
       </c>
       <c r="N2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!N2</f>
-        <v>4.8590116279069777</v>
+        <v>3.8872093023255823</v>
       </c>
       <c r="O2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!O2</f>
-        <v>4.7674418604651159</v>
+        <v>3.8139534883720927</v>
       </c>
       <c r="P2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!P2</f>
-        <v>4.3968023255813957</v>
+        <v>3.5174418604651163</v>
       </c>
       <c r="Q2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!Q2</f>
-        <v>4.5319767441860463</v>
+        <v>3.6255813953488372</v>
       </c>
       <c r="R2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!R2</f>
-        <v>4.5843023255813957</v>
+        <v>3.6674418604651162</v>
       </c>
       <c r="S2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!S2</f>
-        <v>4.433139534883721</v>
+        <v>3.5465116279069768</v>
       </c>
       <c r="T2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!T2</f>
-        <v>4.2093023255813957</v>
+        <v>3.3674418604651164</v>
       </c>
       <c r="U2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!U2</f>
-        <v>4.1555232558139537</v>
+        <v>3.324418604651163</v>
       </c>
       <c r="V2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!V2</f>
-        <v>4.1424418604651168</v>
+        <v>3.3139534883720931</v>
       </c>
       <c r="W2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!W2</f>
-        <v>4.0959302325581399</v>
+        <v>3.2767441860465119</v>
       </c>
       <c r="X2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!X2</f>
-        <v>3.7848837209302335</v>
+        <v>3.0279069767441866</v>
       </c>
       <c r="Y2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!Y2</f>
-        <v>3.6598837209302331</v>
+        <v>2.9279069767441865</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -671,99 +671,99 @@
       </c>
       <c r="B3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!B3</f>
-        <v>2.7410714285714284</v>
+        <v>2.0558035714285712</v>
       </c>
       <c r="C3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!C3</f>
-        <v>2.5848214285714279</v>
+        <v>1.938616071428571</v>
       </c>
       <c r="D3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!D3</f>
-        <v>2.4821428571428568</v>
+        <v>1.8616071428571426</v>
       </c>
       <c r="E3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!E3</f>
-        <v>2.2633928571428572</v>
+        <v>1.6975446428571428</v>
       </c>
       <c r="F3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!F3</f>
-        <v>2.1785714285714284</v>
+        <v>1.6339285714285712</v>
       </c>
       <c r="G3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!G3</f>
-        <v>2.2901785714285712</v>
+        <v>1.7176339285714284</v>
       </c>
       <c r="H3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!H3</f>
-        <v>2.4375</v>
+        <v>1.828125</v>
       </c>
       <c r="I3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!I3</f>
-        <v>3.2723214285714279</v>
+        <v>2.4542410714285712</v>
       </c>
       <c r="J3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!J3</f>
-        <v>3.5714285714285712</v>
+        <v>2.6785714285714284</v>
       </c>
       <c r="K3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!K3</f>
-        <v>3.8080357142857144</v>
+        <v>2.8560267857142856</v>
       </c>
       <c r="L3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!L3</f>
-        <v>3.4732142857142856</v>
+        <v>2.6049107142857144</v>
       </c>
       <c r="M3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!M3</f>
-        <v>3.6473214285714284</v>
+        <v>2.7354910714285712</v>
       </c>
       <c r="N3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!N3</f>
-        <v>3.651785714285714</v>
+        <v>2.7388392857142856</v>
       </c>
       <c r="O3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!O3</f>
-        <v>3.5625</v>
+        <v>2.671875</v>
       </c>
       <c r="P3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!P3</f>
-        <v>3.0625</v>
+        <v>2.296875</v>
       </c>
       <c r="Q3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!Q3</f>
-        <v>3.1919642857142856</v>
+        <v>2.3939732142857144</v>
       </c>
       <c r="R3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!R3</f>
-        <v>3.3794642857142856</v>
+        <v>2.5345982142857144</v>
       </c>
       <c r="S3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!S3</f>
-        <v>3.3660714285714279</v>
+        <v>2.5245535714285712</v>
       </c>
       <c r="T3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!T3</f>
-        <v>3.5089285714285707</v>
+        <v>2.6316964285714279</v>
       </c>
       <c r="U3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!U3</f>
-        <v>3.6964285714285707</v>
+        <v>2.7723214285714279</v>
       </c>
       <c r="V3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!V3</f>
-        <v>3.8660714285714284</v>
+        <v>2.8995535714285712</v>
       </c>
       <c r="W3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!W3</f>
-        <v>3.5491071428571428</v>
+        <v>2.6618303571428572</v>
       </c>
       <c r="X3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!X3</f>
-        <v>3.0491071428571423</v>
+        <v>2.2868303571428568</v>
       </c>
       <c r="Y3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!Y3</f>
-        <v>2.8169642857142856</v>
+        <v>2.1127232142857144</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1075,99 +1075,99 @@
       </c>
       <c r="B7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!B7</f>
-        <v>1.3566621803499326</v>
+        <v>0.67833109017496629</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!C7</f>
-        <v>1.3021534320323016</v>
+        <v>0.6510767160161508</v>
       </c>
       <c r="D7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!D7</f>
-        <v>1.2106325706594885</v>
+        <v>0.60531628532974424</v>
       </c>
       <c r="E7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!E7</f>
-        <v>1.2624495289367428</v>
+        <v>0.63122476446837139</v>
       </c>
       <c r="F7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!F7</f>
-        <v>1.296769851951548</v>
+        <v>0.64838492597577402</v>
       </c>
       <c r="G7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!G7</f>
-        <v>1.2994616419919245</v>
+        <v>0.64973082099596224</v>
       </c>
       <c r="H7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!H7</f>
-        <v>1.415208613728129</v>
+        <v>0.7076043068640645</v>
       </c>
       <c r="I7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!I7</f>
-        <v>1.7792732166890981</v>
+        <v>0.88963660834454905</v>
       </c>
       <c r="J7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!J7</f>
-        <v>1.8580080753701214</v>
+        <v>0.92900403768506068</v>
       </c>
       <c r="K7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!K7</f>
-        <v>1.8479138627187082</v>
+        <v>0.92395693135935408</v>
       </c>
       <c r="L7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!L7</f>
-        <v>1.8519515477792732</v>
+        <v>0.92597577388963659</v>
       </c>
       <c r="M7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!M7</f>
-        <v>1.9542395693135939</v>
+        <v>0.97711978465679694</v>
       </c>
       <c r="N7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!N7</f>
-        <v>1.9293405114401077</v>
+        <v>0.96467025572005383</v>
       </c>
       <c r="O7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!O7</f>
-        <v>1.8452220726783313</v>
+        <v>0.92261103633916564</v>
       </c>
       <c r="P7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!P7</f>
-        <v>1.7348586810228801</v>
+        <v>0.86742934051144005</v>
       </c>
       <c r="Q7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!Q7</f>
-        <v>1.6742934051144012</v>
+        <v>0.83714670255720058</v>
       </c>
       <c r="R7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!R7</f>
-        <v>1.758411843876178</v>
+        <v>0.879205921938089</v>
       </c>
       <c r="S7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!S7</f>
-        <v>1.7039030955585466</v>
+        <v>0.85195154777927329</v>
       </c>
       <c r="T7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!T7</f>
-        <v>1.6056527590847913</v>
+        <v>0.80282637954239566</v>
       </c>
       <c r="U7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!U7</f>
-        <v>1.6238223418573354</v>
+        <v>0.81191117092866771</v>
       </c>
       <c r="V7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!V7</f>
-        <v>1.692462987886945</v>
+        <v>0.84623149394347252</v>
       </c>
       <c r="W7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!W7</f>
-        <v>1.5471063257065951</v>
+        <v>0.77355316285329756</v>
       </c>
       <c r="X7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!X7</f>
-        <v>1.4199192462987889</v>
+        <v>0.70995962314939443</v>
       </c>
       <c r="Y7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!Y7</f>
-        <v>1.411170928667564</v>
+        <v>0.705585464333782</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -1277,99 +1277,99 @@
       </c>
       <c r="B9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!B9</f>
-        <v>0.81650246305418728</v>
+        <v>0.40825123152709364</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!C9</f>
-        <v>0.76231527093596074</v>
+        <v>0.38115763546798037</v>
       </c>
       <c r="D9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!D9</f>
-        <v>0.73768472906403948</v>
+        <v>0.36884236453201974</v>
       </c>
       <c r="E9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!E9</f>
-        <v>0.73152709359605916</v>
+        <v>0.36576354679802958</v>
       </c>
       <c r="F9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!F9</f>
-        <v>0.76108374384236466</v>
+        <v>0.38054187192118233</v>
       </c>
       <c r="G9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!G9</f>
-        <v>0.82635467980295585</v>
+        <v>0.41317733990147792</v>
       </c>
       <c r="H9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!H9</f>
-        <v>1.375615763546798</v>
+        <v>0.68780788177339902</v>
       </c>
       <c r="I9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!I9</f>
-        <v>1.6798029556650249</v>
+        <v>0.83990147783251246</v>
       </c>
       <c r="J9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!J9</f>
-        <v>1.8066502463054186</v>
+        <v>0.9033251231527093</v>
       </c>
       <c r="K9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!K9</f>
-        <v>1.7807881773399017</v>
+        <v>0.89039408866995085</v>
       </c>
       <c r="L9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!L9</f>
-        <v>1.8608374384236455</v>
+        <v>0.93041871921182273</v>
       </c>
       <c r="M9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!M9</f>
-        <v>1.9741379310344827</v>
+        <v>0.98706896551724133</v>
       </c>
       <c r="N9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!N9</f>
-        <v>1.9581280788177342</v>
+        <v>0.9790640394088671</v>
       </c>
       <c r="O9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!O9</f>
-        <v>1.8201970443349755</v>
+        <v>0.91009852216748777</v>
       </c>
       <c r="P9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!P9</f>
-        <v>1.5837438423645323</v>
+        <v>0.79187192118226613</v>
       </c>
       <c r="Q9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!Q9</f>
-        <v>1.5123152709359606</v>
+        <v>0.75615763546798032</v>
       </c>
       <c r="R9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!R9</f>
-        <v>1.4384236453201971</v>
+        <v>0.71921182266009853</v>
       </c>
       <c r="S9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!S9</f>
-        <v>1.4002463054187193</v>
+        <v>0.70012315270935965</v>
       </c>
       <c r="T9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!T9</f>
-        <v>1.3830049261083746</v>
+        <v>0.69150246305418728</v>
       </c>
       <c r="U9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!U9</f>
-        <v>1.4273399014778327</v>
+        <v>0.71366995073891637</v>
       </c>
       <c r="V9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!V9</f>
-        <v>1.3743842364532022</v>
+        <v>0.68719211822660109</v>
       </c>
       <c r="W9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!W9</f>
-        <v>1.2093596059113303</v>
+        <v>0.60467980295566515</v>
       </c>
       <c r="X9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!X9</f>
-        <v>0.98891625615763568</v>
+        <v>0.49445812807881784</v>
       </c>
       <c r="Y9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S1'!Y9</f>
-        <v>0.88546798029556673</v>
+        <v>0.44273399014778336</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -1678,99 +1678,99 @@
       </c>
       <c r="B2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!B2</f>
-        <v>3.9137500000000007</v>
+        <v>3.1310000000000007</v>
       </c>
       <c r="C2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!C2</f>
-        <v>3.837209302325582</v>
+        <v>3.0697674418604657</v>
       </c>
       <c r="D2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!D2</f>
-        <v>3.6222965116279071</v>
+        <v>2.8978372093023257</v>
       </c>
       <c r="E2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!E2</f>
-        <v>3.6293604651162799</v>
+        <v>2.9034883720930238</v>
       </c>
       <c r="F2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!F2</f>
-        <v>3.5311337209302325</v>
+        <v>2.8249069767441859</v>
       </c>
       <c r="G2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!G2</f>
-        <v>3.6569767441860468</v>
+        <v>2.9255813953488374</v>
       </c>
       <c r="H2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!H2</f>
-        <v>3.6975000000000002</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="I2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!I2</f>
-        <v>4.433139534883721</v>
+        <v>3.5465116279069768</v>
       </c>
       <c r="J2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!J2</f>
-        <v>4.8165843023255821</v>
+        <v>3.8532674418604653</v>
       </c>
       <c r="K2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!K2</f>
-        <v>4.7063953488372086</v>
+        <v>3.7651162790697672</v>
       </c>
       <c r="L2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!L2</f>
-        <v>4.5830668604651166</v>
+        <v>3.6664534883720932</v>
       </c>
       <c r="M2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!M2</f>
-        <v>4.5923255813953494</v>
+        <v>3.6738604651162796</v>
       </c>
       <c r="N2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!N2</f>
-        <v>4.761831395348838</v>
+        <v>3.8094651162790707</v>
       </c>
       <c r="O2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!O2</f>
-        <v>4.8627906976744182</v>
+        <v>3.8902325581395347</v>
       </c>
       <c r="P2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!P2</f>
-        <v>4.4847383720930232</v>
+        <v>3.5877906976744187</v>
       </c>
       <c r="Q2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!Q2</f>
-        <v>4.5772965116279067</v>
+        <v>3.6618372093023255</v>
       </c>
       <c r="R2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!R2</f>
-        <v>4.6301453488372086</v>
+        <v>3.7041162790697673</v>
       </c>
       <c r="S2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!S2</f>
-        <v>4.3444767441860463</v>
+        <v>3.4755813953488373</v>
       </c>
       <c r="T2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!T2</f>
-        <v>4.2934883720930239</v>
+        <v>3.4347906976744191</v>
       </c>
       <c r="U2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!U2</f>
-        <v>4.113968023255814</v>
+        <v>3.2911744186046512</v>
       </c>
       <c r="V2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!V2</f>
-        <v>4.1838662790697683</v>
+        <v>3.3470930232558143</v>
       </c>
       <c r="W2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!W2</f>
-        <v>4.0959302325581399</v>
+        <v>3.2767441860465119</v>
       </c>
       <c r="X2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!X2</f>
-        <v>3.8605813953488379</v>
+        <v>3.0884651162790702</v>
       </c>
       <c r="Y2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!Y2</f>
-        <v>3.733081395348838</v>
+        <v>2.9864651162790703</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1779,99 +1779,99 @@
       </c>
       <c r="B3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!B3</f>
-        <v>2.7410714285714284</v>
+        <v>2.0558035714285712</v>
       </c>
       <c r="C3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!C3</f>
-        <v>2.5848214285714279</v>
+        <v>1.938616071428571</v>
       </c>
       <c r="D3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!D3</f>
-        <v>2.4573214285714284</v>
+        <v>1.8429910714285713</v>
       </c>
       <c r="E3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!E3</f>
-        <v>2.2860267857142857</v>
+        <v>1.7145200892857142</v>
       </c>
       <c r="F3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!F3</f>
-        <v>2.1785714285714284</v>
+        <v>1.6339285714285712</v>
       </c>
       <c r="G3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!G3</f>
-        <v>2.3359821428571426</v>
+        <v>1.7519866071428569</v>
       </c>
       <c r="H3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!H3</f>
-        <v>2.413125</v>
+        <v>1.80984375</v>
       </c>
       <c r="I3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!I3</f>
-        <v>3.239598214285714</v>
+        <v>2.4296986607142856</v>
       </c>
       <c r="J3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!J3</f>
-        <v>3.6071428571428568</v>
+        <v>2.7053571428571423</v>
       </c>
       <c r="K3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!K3</f>
-        <v>3.769955357142857</v>
+        <v>2.8274665178571428</v>
       </c>
       <c r="L3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!L3</f>
-        <v>3.5079464285714281</v>
+        <v>2.6309598214285712</v>
       </c>
       <c r="M3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!M3</f>
-        <v>3.6473214285714284</v>
+        <v>2.7354910714285712</v>
       </c>
       <c r="N3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!N3</f>
-        <v>3.7248214285714285</v>
+        <v>2.7936160714285716</v>
       </c>
       <c r="O3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!O3</f>
-        <v>3.5625</v>
+        <v>2.671875</v>
       </c>
       <c r="P3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!P3</f>
-        <v>3.0012500000000002</v>
+        <v>2.2509375</v>
       </c>
       <c r="Q3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!Q3</f>
-        <v>3.1919642857142856</v>
+        <v>2.3939732142857144</v>
       </c>
       <c r="R3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!R3</f>
-        <v>3.4132589285714285</v>
+        <v>2.5599441964285714</v>
       </c>
       <c r="S3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!S3</f>
-        <v>3.3997321428571423</v>
+        <v>2.5497991071428565</v>
       </c>
       <c r="T3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!T3</f>
-        <v>3.5791071428571422</v>
+        <v>2.6843303571428567</v>
       </c>
       <c r="U3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!U3</f>
-        <v>3.6224999999999996</v>
+        <v>2.7168749999999999</v>
       </c>
       <c r="V3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!V3</f>
-        <v>3.8274107142857137</v>
+        <v>2.8705580357142852</v>
       </c>
       <c r="W3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!W3</f>
-        <v>3.6200892857142857</v>
+        <v>2.7150669642857141</v>
       </c>
       <c r="X3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!X3</f>
-        <v>3.0186160714285712</v>
+        <v>2.2639620535714284</v>
       </c>
       <c r="Y3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!Y3</f>
-        <v>2.7606250000000001</v>
+        <v>2.0704687499999999</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2183,99 +2183,99 @@
       </c>
       <c r="B7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!B7</f>
-        <v>1.3430955585464333</v>
+        <v>0.67154777927321663</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!C7</f>
-        <v>1.3021534320323016</v>
+        <v>0.6510767160161508</v>
       </c>
       <c r="D7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!D7</f>
-        <v>1.2106325706594885</v>
+        <v>0.60531628532974424</v>
       </c>
       <c r="E7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!E7</f>
-        <v>1.237200538358008</v>
+        <v>0.61860026917900401</v>
       </c>
       <c r="F7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!F7</f>
-        <v>1.3227052489905791</v>
+        <v>0.66135262449528953</v>
       </c>
       <c r="G7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!G7</f>
-        <v>1.3124562584118435</v>
+        <v>0.65622812920592177</v>
       </c>
       <c r="H7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!H7</f>
-        <v>1.4293606998654105</v>
+        <v>0.71468034993270524</v>
       </c>
       <c r="I7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!I7</f>
-        <v>1.7970659488559892</v>
+        <v>0.89853297442799462</v>
       </c>
       <c r="J7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!J7</f>
-        <v>1.8765881561238225</v>
+        <v>0.93829407806191123</v>
       </c>
       <c r="K7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!K7</f>
-        <v>1.810955585464334</v>
+        <v>0.905477792732167</v>
       </c>
       <c r="L7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!L7</f>
-        <v>1.8889905787348586</v>
+        <v>0.94449528936742932</v>
       </c>
       <c r="M7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!M7</f>
-        <v>1.9933243606998658</v>
+        <v>0.99666218034993292</v>
       </c>
       <c r="N7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!N7</f>
-        <v>1.8907537012113056</v>
+        <v>0.9453768506056528</v>
       </c>
       <c r="O7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!O7</f>
-        <v>1.8636742934051145</v>
+        <v>0.93183714670255724</v>
       </c>
       <c r="P7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!P7</f>
-        <v>1.7175100942126513</v>
+        <v>0.85875504710632566</v>
       </c>
       <c r="Q7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!Q7</f>
-        <v>1.6575504710632571</v>
+        <v>0.82877523553162857</v>
       </c>
       <c r="R7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!R7</f>
-        <v>1.758411843876178</v>
+        <v>0.879205921938089</v>
       </c>
       <c r="S7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!S7</f>
-        <v>1.7209421265141323</v>
+        <v>0.86047106325706613</v>
       </c>
       <c r="T7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!T7</f>
-        <v>1.6217092866756391</v>
+        <v>0.81085464333781954</v>
       </c>
       <c r="U7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!U7</f>
-        <v>1.6075841184387623</v>
+        <v>0.80379205921938113</v>
       </c>
       <c r="V7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!V7</f>
-        <v>1.7093876177658145</v>
+        <v>0.85469380888290725</v>
       </c>
       <c r="W7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!W7</f>
-        <v>1.5625773889636612</v>
+        <v>0.78128869448183058</v>
       </c>
       <c r="X7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!X7</f>
-        <v>1.4341184387617767</v>
+        <v>0.71705921938088835</v>
       </c>
       <c r="Y7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!Y7</f>
-        <v>1.411170928667564</v>
+        <v>0.705585464333782</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -2385,99 +2385,99 @@
       </c>
       <c r="B9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!B9</f>
-        <v>0.80833743842364536</v>
+        <v>0.40416871921182268</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!C9</f>
-        <v>0.76993842364532028</v>
+        <v>0.38496921182266014</v>
       </c>
       <c r="D9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!D9</f>
-        <v>0.73768472906403948</v>
+        <v>0.36884236453201974</v>
       </c>
       <c r="E9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!E9</f>
-        <v>0.73152709359605916</v>
+        <v>0.36576354679802958</v>
       </c>
       <c r="F9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!F9</f>
-        <v>0.75347290640394105</v>
+        <v>0.37673645320197052</v>
       </c>
       <c r="G9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!G9</f>
-        <v>0.84288177339901493</v>
+        <v>0.42144088669950747</v>
       </c>
       <c r="H9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!H9</f>
-        <v>1.3618596059113302</v>
+        <v>0.68092980295566508</v>
       </c>
       <c r="I9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!I9</f>
-        <v>1.6462068965517245</v>
+        <v>0.82310344827586224</v>
       </c>
       <c r="J9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!J9</f>
-        <v>1.8247167487684728</v>
+        <v>0.91235837438423639</v>
       </c>
       <c r="K9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!K9</f>
-        <v>1.8164039408866999</v>
+        <v>0.90820197044334994</v>
       </c>
       <c r="L9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!L9</f>
-        <v>1.8608374384236455</v>
+        <v>0.93041871921182273</v>
       </c>
       <c r="M9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!M9</f>
-        <v>1.9938793103448276</v>
+        <v>0.99693965517241379</v>
       </c>
       <c r="N9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!N9</f>
-        <v>1.958128078817734</v>
+        <v>0.97906403940886699</v>
       </c>
       <c r="O9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!O9</f>
-        <v>1.8201970443349758</v>
+        <v>0.91009852216748788</v>
       </c>
       <c r="P9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!P9</f>
-        <v>1.5520689655172415</v>
+        <v>0.77603448275862075</v>
       </c>
       <c r="Q9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!Q9</f>
-        <v>1.497192118226601</v>
+        <v>0.74859605911330052</v>
       </c>
       <c r="R9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!R9</f>
-        <v>1.4528078817733989</v>
+        <v>0.72640394088669946</v>
       </c>
       <c r="S9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!S9</f>
-        <v>1.386243842364532</v>
+        <v>0.69312192118226601</v>
       </c>
       <c r="T9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!T9</f>
-        <v>1.355344827586207</v>
+        <v>0.6776724137931035</v>
       </c>
       <c r="U9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!U9</f>
-        <v>1.4558866995073894</v>
+        <v>0.72794334975369468</v>
       </c>
       <c r="V9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!V9</f>
-        <v>1.346896551724138</v>
+        <v>0.67344827586206901</v>
       </c>
       <c r="W9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!W9</f>
-        <v>1.197266009852217</v>
+        <v>0.59863300492610849</v>
       </c>
       <c r="X9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!X9</f>
-        <v>0.99880541871921213</v>
+        <v>0.49940270935960607</v>
       </c>
       <c r="Y9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S2'!Y9</f>
-        <v>0.90317733990147797</v>
+        <v>0.45158866995073899</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -2786,99 +2786,99 @@
       </c>
       <c r="B2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!B2</f>
-        <v>3.9137500000000007</v>
+        <v>3.1310000000000007</v>
       </c>
       <c r="C2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!C2</f>
-        <v>3.9139534883720941</v>
+        <v>3.1311627906976751</v>
       </c>
       <c r="D2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!D2</f>
-        <v>3.6222965116279071</v>
+        <v>2.8978372093023257</v>
       </c>
       <c r="E2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!E2</f>
-        <v>3.7019476744186046</v>
+        <v>2.9615581395348838</v>
       </c>
       <c r="F2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!F2</f>
-        <v>3.5311337209302325</v>
+        <v>2.8249069767441859</v>
       </c>
       <c r="G2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!G2</f>
-        <v>3.6204069767441864</v>
+        <v>2.8963255813953492</v>
       </c>
       <c r="H2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!H2</f>
-        <v>3.6250000000000004</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="I2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!I2</f>
-        <v>4.5218023255813957</v>
+        <v>3.6174418604651164</v>
       </c>
       <c r="J2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!J2</f>
-        <v>4.6735174418604659</v>
+        <v>3.7388139534883726</v>
       </c>
       <c r="K2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!K2</f>
-        <v>4.6593313953488371</v>
+        <v>3.7274651162790695</v>
       </c>
       <c r="L2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!L2</f>
-        <v>4.6756540697674422</v>
+        <v>3.7405232558139541</v>
       </c>
       <c r="M2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!M2</f>
-        <v>4.6860465116279073</v>
+        <v>3.7488372093023261</v>
       </c>
       <c r="N2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!N2</f>
-        <v>4.8104215116279079</v>
+        <v>3.8483372093023265</v>
       </c>
       <c r="O2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!O2</f>
-        <v>4.6720930232558135</v>
+        <v>3.7376744186046507</v>
       </c>
       <c r="P2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!P2</f>
-        <v>4.352834302325582</v>
+        <v>3.4822674418604653</v>
       </c>
       <c r="Q2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!Q2</f>
-        <v>4.6226162790697671</v>
+        <v>3.6980930232558138</v>
       </c>
       <c r="R2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!R2</f>
-        <v>4.6301453488372086</v>
+        <v>3.7041162790697673</v>
       </c>
       <c r="S2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!S2</f>
-        <v>4.3444767441860463</v>
+        <v>3.4755813953488373</v>
       </c>
       <c r="T2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!T2</f>
-        <v>4.2093023255813957</v>
+        <v>3.3674418604651164</v>
       </c>
       <c r="U2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!U2</f>
-        <v>4.113968023255814</v>
+        <v>3.2911744186046512</v>
       </c>
       <c r="V2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!V2</f>
-        <v>4.1010174418604652</v>
+        <v>3.280813953488372</v>
       </c>
       <c r="W2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!W2</f>
-        <v>4.1778488372093028</v>
+        <v>3.342279069767442</v>
       </c>
       <c r="X2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!X2</f>
-        <v>3.8605813953488384</v>
+        <v>3.0884651162790706</v>
       </c>
       <c r="Y2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!Y2</f>
-        <v>3.623284883720931</v>
+        <v>2.8986279069767447</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2887,99 +2887,99 @@
       </c>
       <c r="B3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!B3</f>
-        <v>2.7684821428571427</v>
+        <v>2.0763616071428572</v>
       </c>
       <c r="C3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!C3</f>
-        <v>2.6106696428571423</v>
+        <v>1.9580022321428567</v>
       </c>
       <c r="D3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!D3</f>
-        <v>2.4821428571428568</v>
+        <v>1.8616071428571426</v>
       </c>
       <c r="E3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!E3</f>
-        <v>2.3086607142857143</v>
+        <v>1.7314955357142856</v>
       </c>
       <c r="F3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!F3</f>
-        <v>2.1567857142857139</v>
+        <v>1.6175892857142853</v>
       </c>
       <c r="G3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!G3</f>
-        <v>2.2672767857142855</v>
+        <v>1.7004575892857141</v>
       </c>
       <c r="H3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!H3</f>
-        <v>2.461875</v>
+        <v>1.84640625</v>
       </c>
       <c r="I3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!I3</f>
-        <v>3.2068749999999993</v>
+        <v>2.4051562499999992</v>
       </c>
       <c r="J3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!J3</f>
-        <v>3.4999999999999996</v>
+        <v>2.6249999999999996</v>
       </c>
       <c r="K3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!K3</f>
-        <v>3.8461160714285714</v>
+        <v>2.8845870535714284</v>
       </c>
       <c r="L3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!L3</f>
-        <v>3.4037499999999996</v>
+        <v>2.5528124999999999</v>
       </c>
       <c r="M3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!M3</f>
-        <v>3.6473214285714284</v>
+        <v>2.7354910714285712</v>
       </c>
       <c r="N3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!N3</f>
-        <v>3.6152678571428569</v>
+        <v>2.7114508928571426</v>
       </c>
       <c r="O3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!O3</f>
-        <v>3.5625</v>
+        <v>2.671875</v>
       </c>
       <c r="P3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!P3</f>
-        <v>3.0318749999999999</v>
+        <v>2.27390625</v>
       </c>
       <c r="Q3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!Q3</f>
-        <v>3.2238839285714285</v>
+        <v>2.4179129464285714</v>
       </c>
       <c r="R3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!R3</f>
-        <v>3.4470535714285715</v>
+        <v>2.5852901785714284</v>
       </c>
       <c r="S3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!S3</f>
-        <v>3.3997321428571423</v>
+        <v>2.5497991071428565</v>
       </c>
       <c r="T3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!T3</f>
-        <v>3.4387499999999993</v>
+        <v>2.5790624999999996</v>
       </c>
       <c r="U3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!U3</f>
-        <v>3.6964285714285707</v>
+        <v>2.7723214285714279</v>
       </c>
       <c r="V3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!V3</f>
-        <v>3.7887499999999998</v>
+        <v>2.8415624999999998</v>
       </c>
       <c r="W3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!W3</f>
-        <v>3.5491071428571428</v>
+        <v>2.6618303571428572</v>
       </c>
       <c r="X3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!X3</f>
-        <v>3.0491071428571423</v>
+        <v>2.2868303571428568</v>
       </c>
       <c r="Y3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!Y3</f>
-        <v>2.8451339285714283</v>
+        <v>2.1338504464285712</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3291,99 +3291,99 @@
       </c>
       <c r="B7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!B7</f>
-        <v>1.3430955585464333</v>
+        <v>0.67154777927321663</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!C7</f>
-        <v>1.3021534320323016</v>
+        <v>0.6510767160161508</v>
       </c>
       <c r="D7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!D7</f>
-        <v>1.2348452220726782</v>
+        <v>0.61742261103633911</v>
       </c>
       <c r="E7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!E7</f>
-        <v>1.2498250336473753</v>
+        <v>0.62491251682368765</v>
       </c>
       <c r="F7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!F7</f>
-        <v>1.270834454912517</v>
+        <v>0.6354172274562585</v>
       </c>
       <c r="G7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!G7</f>
-        <v>1.3124562584118438</v>
+        <v>0.65622812920592188</v>
       </c>
       <c r="H7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!H7</f>
-        <v>1.415208613728129</v>
+        <v>0.7076043068640645</v>
       </c>
       <c r="I7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!I7</f>
-        <v>1.797065948855989</v>
+        <v>0.89853297442799451</v>
       </c>
       <c r="J7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!J7</f>
-        <v>1.8580080753701214</v>
+        <v>0.92900403768506068</v>
       </c>
       <c r="K7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!K7</f>
-        <v>1.810955585464334</v>
+        <v>0.905477792732167</v>
       </c>
       <c r="L7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!L7</f>
-        <v>1.8149125168236877</v>
+        <v>0.90745625841184385</v>
       </c>
       <c r="M7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!M7</f>
-        <v>1.9542395693135939</v>
+        <v>0.97711978465679694</v>
       </c>
       <c r="N7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!N7</f>
-        <v>1.9293405114401077</v>
+        <v>0.96467025572005383</v>
       </c>
       <c r="O7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!O7</f>
-        <v>1.8267698519515478</v>
+        <v>0.91338492597577392</v>
       </c>
       <c r="P7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!P7</f>
-        <v>1.7001615074024226</v>
+        <v>0.85008075370121128</v>
       </c>
       <c r="Q7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!Q7</f>
-        <v>1.6575504710632571</v>
+        <v>0.82877523553162857</v>
       </c>
       <c r="R7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!R7</f>
-        <v>1.7935800807537017</v>
+        <v>0.89679004037685084</v>
       </c>
       <c r="S7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!S7</f>
-        <v>1.6698250336473757</v>
+        <v>0.83491251682368783</v>
       </c>
       <c r="T7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!T7</f>
-        <v>1.6217092866756393</v>
+        <v>0.81085464333781965</v>
       </c>
       <c r="U7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!U7</f>
-        <v>1.6238223418573354</v>
+        <v>0.81191117092866771</v>
       </c>
       <c r="V7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!V7</f>
-        <v>1.692462987886945</v>
+        <v>0.84623149394347252</v>
       </c>
       <c r="W7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!W7</f>
-        <v>1.578048452220727</v>
+        <v>0.78902422611036349</v>
       </c>
       <c r="X7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!X7</f>
-        <v>1.4483176312247648</v>
+        <v>0.72415881561238238</v>
       </c>
       <c r="Y7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!Y7</f>
-        <v>1.4393943472409152</v>
+        <v>0.7196971736204576</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -3493,99 +3493,99 @@
       </c>
       <c r="B9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!B9</f>
-        <v>0.832832512315271</v>
+        <v>0.4164162561576355</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!C9</f>
-        <v>0.75469211822660109</v>
+        <v>0.37734605911330055</v>
       </c>
       <c r="D9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!D9</f>
-        <v>0.75243842364532032</v>
+        <v>0.37621921182266016</v>
       </c>
       <c r="E9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!E9</f>
-        <v>0.73884236453201979</v>
+        <v>0.3694211822660099</v>
       </c>
       <c r="F9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!F9</f>
-        <v>0.76869458128078827</v>
+        <v>0.38434729064039413</v>
       </c>
       <c r="G9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!G9</f>
-        <v>0.84288177339901493</v>
+        <v>0.42144088669950747</v>
       </c>
       <c r="H9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!H9</f>
-        <v>1.3893719211822659</v>
+        <v>0.69468596059113297</v>
       </c>
       <c r="I9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!I9</f>
-        <v>1.6798029556650249</v>
+        <v>0.83990147783251246</v>
       </c>
       <c r="J9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!J9</f>
-        <v>1.842783251231527</v>
+        <v>0.92139162561576349</v>
       </c>
       <c r="K9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!K9</f>
-        <v>1.7629802955665026</v>
+        <v>0.8814901477832513</v>
       </c>
       <c r="L9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!L9</f>
-        <v>1.8794458128078819</v>
+        <v>0.93972290640394096</v>
       </c>
       <c r="M9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!M9</f>
-        <v>1.934655172413793</v>
+        <v>0.96732758620689652</v>
       </c>
       <c r="N9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!N9</f>
-        <v>1.9972906403940889</v>
+        <v>0.99864532019704444</v>
       </c>
       <c r="O9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!O9</f>
-        <v>1.7837931034482759</v>
+        <v>0.89189655172413795</v>
       </c>
       <c r="P9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!P9</f>
-        <v>1.567906403940887</v>
+        <v>0.78395320197044349</v>
       </c>
       <c r="Q9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!Q9</f>
-        <v>1.497192118226601</v>
+        <v>0.74859605911330052</v>
       </c>
       <c r="R9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!R9</f>
-        <v>1.467192118226601</v>
+        <v>0.7335960591133005</v>
       </c>
       <c r="S9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!S9</f>
-        <v>1.372241379310345</v>
+        <v>0.68612068965517248</v>
       </c>
       <c r="T9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!T9</f>
-        <v>1.4106650246305421</v>
+        <v>0.70533251231527105</v>
       </c>
       <c r="U9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!U9</f>
-        <v>1.441613300492611</v>
+        <v>0.72080665024630552</v>
       </c>
       <c r="V9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!V9</f>
-        <v>1.3606403940886702</v>
+        <v>0.68032019704433511</v>
       </c>
       <c r="W9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!W9</f>
-        <v>1.2093596059113303</v>
+        <v>0.60467980295566515</v>
       </c>
       <c r="X9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!X9</f>
-        <v>0.97902709359605933</v>
+        <v>0.48951354679802966</v>
       </c>
       <c r="Y9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Summer, S3'!Y9</f>
-        <v>0.8766133004926111</v>
+        <v>0.43830665024630555</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -3894,99 +3894,99 @@
       </c>
       <c r="B2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!B2</f>
-        <v>0.55369127516778527</v>
+        <v>0.44295302013422821</v>
       </c>
       <c r="C2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!C2</f>
-        <v>0.61157718120805371</v>
+        <v>0.48926174496644298</v>
       </c>
       <c r="D2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!D2</f>
-        <v>0.57634228187919467</v>
+        <v>0.46107382550335574</v>
       </c>
       <c r="E2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!E2</f>
-        <v>0.57634228187919467</v>
+        <v>0.46107382550335574</v>
       </c>
       <c r="F2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!F2</f>
-        <v>0.56375838926174504</v>
+        <v>0.45100671140939597</v>
       </c>
       <c r="G2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!G2</f>
-        <v>0.596476510067114</v>
+        <v>0.47718120805369119</v>
       </c>
       <c r="H2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!H2</f>
-        <v>0.61409395973154368</v>
+        <v>0.49127516778523489</v>
       </c>
       <c r="I2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!I2</f>
-        <v>1.1501677852348995</v>
+        <v>0.92013422818791946</v>
       </c>
       <c r="J2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!J2</f>
-        <v>1.3389261744966443</v>
+        <v>1.0711409395973155</v>
       </c>
       <c r="K2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!K2</f>
-        <v>1.2885906040268456</v>
+        <v>1.0308724832214764</v>
       </c>
       <c r="L2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!L2</f>
-        <v>1.2583892617449663</v>
+        <v>1.006711409395973</v>
       </c>
       <c r="M2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!M2</f>
-        <v>1.2558724832214767</v>
+        <v>1.0046979865771812</v>
       </c>
       <c r="N2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!N2</f>
-        <v>1.3364093959731542</v>
+        <v>1.0691275167785232</v>
       </c>
       <c r="O2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!O2</f>
-        <v>1.2961409395973156</v>
+        <v>1.0369127516778525</v>
       </c>
       <c r="P2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!P2</f>
-        <v>0.90855704697986561</v>
+        <v>0.72684563758389253</v>
       </c>
       <c r="Q2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!Q2</f>
-        <v>1.1879194630872483</v>
+        <v>0.95033557046979855</v>
       </c>
       <c r="R2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!R2</f>
-        <v>1.2030201342281879</v>
+        <v>0.96241610738255035</v>
       </c>
       <c r="S2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!S2</f>
-        <v>1.1275167785234901</v>
+        <v>0.90201342281879193</v>
       </c>
       <c r="T2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!T2</f>
-        <v>0.89345637583892623</v>
+        <v>0.71476510067114096</v>
       </c>
       <c r="U2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!U2</f>
-        <v>0.81040268456375841</v>
+        <v>0.64832214765100671</v>
       </c>
       <c r="V2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!V2</f>
-        <v>0.85067114093959728</v>
+        <v>0.68053691275167782</v>
       </c>
       <c r="W2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!W2</f>
-        <v>0.85318791946308714</v>
+        <v>0.68255033557046974</v>
       </c>
       <c r="X2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!X2</f>
-        <v>0.58892617449664431</v>
+        <v>0.4711409395973154</v>
       </c>
       <c r="Y2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!Y2</f>
-        <v>0.58389261744966447</v>
+        <v>0.46711409395973158</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3995,99 +3995,99 @@
       </c>
       <c r="B3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!B3</f>
-        <v>2.222222222222222E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="C3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!C3</f>
-        <v>-0.13333333333333333</v>
+        <v>-0.1</v>
       </c>
       <c r="D3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!D3</f>
-        <v>-0.14444444444444443</v>
+        <v>-0.10833333333333332</v>
       </c>
       <c r="E3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!E3</f>
-        <v>-0.21111111111111111</v>
+        <v>-0.15833333333333335</v>
       </c>
       <c r="F3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!F3</f>
-        <v>-0.25555555555555554</v>
+        <v>-0.19166666666666665</v>
       </c>
       <c r="G3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!G3</f>
-        <v>-0.2</v>
+        <v>-0.15000000000000002</v>
       </c>
       <c r="H3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!H3</f>
-        <v>-0.25555555555555554</v>
+        <v>-0.19166666666666668</v>
       </c>
       <c r="I3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!I3</f>
-        <v>0.64444444444444449</v>
+        <v>0.48333333333333339</v>
       </c>
       <c r="J3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!J3</f>
-        <v>0.82222222222222208</v>
+        <v>0.61666666666666659</v>
       </c>
       <c r="K3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!K3</f>
-        <v>1.0555555555555554</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="L3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!L3</f>
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="M3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!M3</f>
-        <v>0.5444444444444444</v>
+        <v>0.40833333333333333</v>
       </c>
       <c r="N3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!N3</f>
-        <v>0.37777777777777777</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="O3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!O3</f>
-        <v>0.51111111111111107</v>
+        <v>0.3833333333333333</v>
       </c>
       <c r="P3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!P3</f>
-        <v>0.22222222222222221</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!Q3</f>
-        <v>0.18888888888888886</v>
+        <v>0.14166666666666666</v>
       </c>
       <c r="R3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!R3</f>
-        <v>0.22222222222222221</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!S3</f>
-        <v>0.39999999999999997</v>
+        <v>0.3</v>
       </c>
       <c r="T3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!T3</f>
-        <v>0.76666666666666672</v>
+        <v>0.57500000000000007</v>
       </c>
       <c r="U3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!U3</f>
-        <v>0.77777777777777757</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="V3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!V3</f>
-        <v>0.62222222222222201</v>
+        <v>0.46666666666666656</v>
       </c>
       <c r="W3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!W3</f>
-        <v>0.47777777777777775</v>
+        <v>0.35833333333333334</v>
       </c>
       <c r="X3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!X3</f>
-        <v>0.22222222222222218</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="Y3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!Y3</f>
-        <v>4.4444444444444439E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4399,99 +4399,99 @@
       </c>
       <c r="B7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!B7</f>
-        <v>0.23999999999999996</v>
+        <v>0.11999999999999998</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!C7</f>
-        <v>0.26624999999999999</v>
+        <v>0.13312499999999999</v>
       </c>
       <c r="D7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!D7</f>
-        <v>0.20250000000000001</v>
+        <v>0.10125000000000001</v>
       </c>
       <c r="E7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!E7</f>
-        <v>0.23812499999999998</v>
+        <v>0.11906249999999999</v>
       </c>
       <c r="F7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!F7</f>
-        <v>0.24374999999999999</v>
+        <v>0.121875</v>
       </c>
       <c r="G7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!G7</f>
-        <v>0.25031249999999999</v>
+        <v>0.12515625</v>
       </c>
       <c r="H7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!H7</f>
-        <v>0.24187500000000001</v>
+        <v>0.1209375</v>
       </c>
       <c r="I7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!I7</f>
-        <v>0.44812499999999994</v>
+        <v>0.22406249999999997</v>
       </c>
       <c r="J7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!J7</f>
-        <v>0.51375000000000004</v>
+        <v>0.25687500000000002</v>
       </c>
       <c r="K7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!K7</f>
-        <v>0.5128125</v>
+        <v>0.25640625</v>
       </c>
       <c r="L7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!L7</f>
-        <v>0.44812499999999988</v>
+        <v>0.22406249999999994</v>
       </c>
       <c r="M7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!M7</f>
-        <v>0.53531250000000008</v>
+        <v>0.26765625000000004</v>
       </c>
       <c r="N7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!N7</f>
-        <v>0.55781249999999993</v>
+        <v>0.27890624999999997</v>
       </c>
       <c r="O7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!O7</f>
-        <v>0.51375000000000004</v>
+        <v>0.25687500000000002</v>
       </c>
       <c r="P7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!P7</f>
-        <v>0.44718749999999996</v>
+        <v>0.22359374999999998</v>
       </c>
       <c r="Q7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!Q7</f>
-        <v>0.39374999999999999</v>
+        <v>0.19687499999999999</v>
       </c>
       <c r="R7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!R7</f>
-        <v>0.47999999999999993</v>
+        <v>0.23999999999999996</v>
       </c>
       <c r="S7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!S7</f>
-        <v>0.46499999999999991</v>
+        <v>0.23249999999999996</v>
       </c>
       <c r="T7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!T7</f>
-        <v>0.3646875</v>
+        <v>0.18234375</v>
       </c>
       <c r="U7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!U7</f>
-        <v>0.33843749999999995</v>
+        <v>0.16921874999999997</v>
       </c>
       <c r="V7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!V7</f>
-        <v>0.3984375</v>
+        <v>0.19921875</v>
       </c>
       <c r="W7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!W7</f>
-        <v>0.31406249999999997</v>
+        <v>0.15703124999999998</v>
       </c>
       <c r="X7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!X7</f>
-        <v>0.23906249999999998</v>
+        <v>0.11953124999999999</v>
       </c>
       <c r="Y7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!Y7</f>
-        <v>0.26718749999999997</v>
+        <v>0.13359374999999998</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -4500,55 +4500,55 @@
       </c>
       <c r="B8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!B8</f>
-        <v>-0.46304347826086945</v>
+        <v>-0.23152173913043472</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!C8</f>
-        <v>-0.4760869565217391</v>
+        <v>-0.23804347826086955</v>
       </c>
       <c r="D8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!D8</f>
-        <v>-0.50543478260869557</v>
+        <v>-0.25271739130434778</v>
       </c>
       <c r="E8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!E8</f>
-        <v>-0.51847826086956528</v>
+        <v>-0.25923913043478264</v>
       </c>
       <c r="F8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!F8</f>
-        <v>-0.48586956521739133</v>
+        <v>-0.24293478260869567</v>
       </c>
       <c r="G8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!G8</f>
-        <v>-0.52500000000000002</v>
+        <v>-0.26250000000000001</v>
       </c>
       <c r="H8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!H8</f>
-        <v>-0.44999999999999996</v>
+        <v>-0.22499999999999998</v>
       </c>
       <c r="I8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!I8</f>
-        <v>-0.20543478260869563</v>
+        <v>-0.10271739130434782</v>
       </c>
       <c r="J8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!J8</f>
-        <v>-3.5869565217391298E-2</v>
+        <v>-1.7934782608695649E-2</v>
       </c>
       <c r="K8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!K8</f>
-        <v>-2.9347826086956519E-2</v>
+        <v>-1.4673913043478259E-2</v>
       </c>
       <c r="L8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!L8</f>
-        <v>6.1956521739130424E-2</v>
+        <v>3.0978260869565212E-2</v>
       </c>
       <c r="M8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!M8</f>
-        <v>1.9565217391304346E-2</v>
+        <v>9.7826086956521729E-3</v>
       </c>
       <c r="N8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!N8</f>
-        <v>6.5217391304347823E-3</v>
+        <v>3.2608695652173911E-3</v>
       </c>
       <c r="O8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!O8</f>
@@ -4556,43 +4556,43 @@
       </c>
       <c r="P8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!P8</f>
-        <v>-5.2173913043478258E-2</v>
+        <v>-2.6086956521739129E-2</v>
       </c>
       <c r="Q8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!Q8</f>
-        <v>-9.1304347826086957E-2</v>
+        <v>-4.5652173913043478E-2</v>
       </c>
       <c r="R8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!R8</f>
-        <v>-0.13369565217391305</v>
+        <v>-6.6847826086956524E-2</v>
       </c>
       <c r="S8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!S8</f>
-        <v>-0.17608695652173914</v>
+        <v>-8.804347826086957E-2</v>
       </c>
       <c r="T8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!T8</f>
-        <v>-0.15326086956521739</v>
+        <v>-7.6630434782608697E-2</v>
       </c>
       <c r="U8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!U8</f>
-        <v>-0.18586956521739131</v>
+        <v>-9.2934782608695657E-2</v>
       </c>
       <c r="V8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!V8</f>
-        <v>-0.13043478260869565</v>
+        <v>-6.5217391304347824E-2</v>
       </c>
       <c r="W8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!W8</f>
-        <v>-0.24456521739130432</v>
+        <v>-0.12228260869565216</v>
       </c>
       <c r="X8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!X8</f>
-        <v>-0.30978260869565216</v>
+        <v>-0.15489130434782608</v>
       </c>
       <c r="Y8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!Y8</f>
-        <v>-0.33260869565217394</v>
+        <v>-0.16630434782608697</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -4601,99 +4601,99 @@
       </c>
       <c r="B9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!B9</f>
-        <v>-0.57967741935483863</v>
+        <v>-0.28983870967741932</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!C9</f>
-        <v>-0.58354838709677403</v>
+        <v>-0.29177419354838702</v>
       </c>
       <c r="D9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!D9</f>
-        <v>-0.58935483870967731</v>
+        <v>-0.29467741935483865</v>
       </c>
       <c r="E9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!E9</f>
-        <v>-0.59225806451612895</v>
+        <v>-0.29612903225806447</v>
       </c>
       <c r="F9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!F9</f>
-        <v>-0.58451612903225814</v>
+        <v>-0.29225806451612907</v>
       </c>
       <c r="G9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!G9</f>
-        <v>-0.57096774193548383</v>
+        <v>-0.28548387096774192</v>
       </c>
       <c r="H9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!H9</f>
-        <v>-0.48483870967741927</v>
+        <v>-0.24241935483870963</v>
       </c>
       <c r="I9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!I9</f>
-        <v>-0.40064516129032263</v>
+        <v>-0.20032258064516131</v>
       </c>
       <c r="J9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!J9</f>
-        <v>-0.39193548387096772</v>
+        <v>-0.19596774193548386</v>
       </c>
       <c r="K9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!K9</f>
-        <v>-0.38612903225806444</v>
+        <v>-0.19306451612903222</v>
       </c>
       <c r="L9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!L9</f>
-        <v>-0.3793548387096774</v>
+        <v>-0.1896774193548387</v>
       </c>
       <c r="M9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!M9</f>
-        <v>-0.37645161290322582</v>
+        <v>-0.18822580645161291</v>
       </c>
       <c r="N9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!N9</f>
-        <v>-0.38516129032258067</v>
+        <v>-0.19258064516129034</v>
       </c>
       <c r="O9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!O9</f>
-        <v>-0.39967741935483869</v>
+        <v>-0.19983870967741935</v>
       </c>
       <c r="P9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!P9</f>
-        <v>-0.44032258064516122</v>
+        <v>-0.22016129032258061</v>
       </c>
       <c r="Q9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!Q9</f>
-        <v>-0.45967741935483869</v>
+        <v>-0.22983870967741934</v>
       </c>
       <c r="R9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!R9</f>
-        <v>-0.47516129032258064</v>
+        <v>-0.23758064516129032</v>
       </c>
       <c r="S9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!S9</f>
-        <v>-0.47709677419354829</v>
+        <v>-0.23854838709677414</v>
       </c>
       <c r="T9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!T9</f>
-        <v>-0.4858064516129032</v>
+        <v>-0.2429032258064516</v>
       </c>
       <c r="U9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!U9</f>
-        <v>-0.50225806451612909</v>
+        <v>-0.25112903225806454</v>
       </c>
       <c r="V9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!V9</f>
-        <v>-0.53419354838709676</v>
+        <v>-0.26709677419354838</v>
       </c>
       <c r="W9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!W9</f>
-        <v>-0.55548387096774188</v>
+        <v>-0.27774193548387094</v>
       </c>
       <c r="X9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!X9</f>
-        <v>-0.56419354838709679</v>
+        <v>-0.28209677419354839</v>
       </c>
       <c r="Y9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S1'!Y9</f>
-        <v>-0.57483870967741924</v>
+        <v>-0.28741935483870962</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -5002,99 +5002,99 @@
       </c>
       <c r="B2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!B2</f>
-        <v>0.54261744966442949</v>
+        <v>0.43409395973154358</v>
       </c>
       <c r="C2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!C2</f>
-        <v>0.61769295302013438</v>
+        <v>0.49415436241610744</v>
       </c>
       <c r="D2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!D2</f>
-        <v>0.58786912751677844</v>
+        <v>0.47029530201342279</v>
       </c>
       <c r="E2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!E2</f>
-        <v>0.58210570469798661</v>
+        <v>0.46568456375838924</v>
       </c>
       <c r="F2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!F2</f>
-        <v>0.56939597315436252</v>
+        <v>0.45551677852348993</v>
       </c>
       <c r="G2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!G2</f>
-        <v>0.58454697986577164</v>
+        <v>0.46763758389261734</v>
       </c>
       <c r="H2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!H2</f>
-        <v>0.61409395973154368</v>
+        <v>0.49127516778523489</v>
       </c>
       <c r="I2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!I2</f>
-        <v>1.1731711409395975</v>
+        <v>0.93853691275167794</v>
       </c>
       <c r="J2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!J2</f>
-        <v>1.3523154362416108</v>
+        <v>1.0818523489932887</v>
       </c>
       <c r="K2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!K2</f>
-        <v>1.3143624161073824</v>
+        <v>1.0514899328859058</v>
       </c>
       <c r="L2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!L2</f>
-        <v>1.2332214765100671</v>
+        <v>0.9865771812080536</v>
       </c>
       <c r="M2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!M2</f>
-        <v>1.2684312080536915</v>
+        <v>1.0147449664429531</v>
       </c>
       <c r="N2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!N2</f>
-        <v>1.3364093959731542</v>
+        <v>1.0691275167785232</v>
       </c>
       <c r="O2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!O2</f>
-        <v>1.3091023489932887</v>
+        <v>1.0472818791946308</v>
       </c>
       <c r="P2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!P2</f>
-        <v>0.90855704697986561</v>
+        <v>0.72684563758389253</v>
       </c>
       <c r="Q2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!Q2</f>
-        <v>1.1641610738255033</v>
+        <v>0.93132885906040253</v>
       </c>
       <c r="R2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!R2</f>
-        <v>1.2270805369127518</v>
+        <v>0.98166442953020128</v>
       </c>
       <c r="S2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!S2</f>
-        <v>1.1049664429530202</v>
+        <v>0.88397315436241619</v>
       </c>
       <c r="T2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!T2</f>
-        <v>0.91132550335570461</v>
+        <v>0.72906040268456374</v>
       </c>
       <c r="U2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!U2</f>
-        <v>0.82661073825503373</v>
+        <v>0.661288590604027</v>
       </c>
       <c r="V2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!V2</f>
-        <v>0.8676845637583892</v>
+        <v>0.69414765100671139</v>
       </c>
       <c r="W2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!W2</f>
-        <v>0.85318791946308714</v>
+        <v>0.68255033557046974</v>
       </c>
       <c r="X2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!X2</f>
-        <v>0.60070469798657711</v>
+        <v>0.48056375838926169</v>
       </c>
       <c r="Y2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!Y2</f>
-        <v>0.58973154362416114</v>
+        <v>0.47178523489932889</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5103,99 +5103,99 @@
       </c>
       <c r="B3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!B3</f>
-        <v>2.1777777777777774E-2</v>
+        <v>1.6333333333333332E-2</v>
       </c>
       <c r="C3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!C3</f>
-        <v>-0.13066666666666668</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="D3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!D3</f>
-        <v>-0.14733333333333332</v>
+        <v>-0.11049999999999999</v>
       </c>
       <c r="E3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!E3</f>
-        <v>-0.21533333333333335</v>
+        <v>-0.16150000000000003</v>
       </c>
       <c r="F3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!F3</f>
-        <v>-0.25555555555555554</v>
+        <v>-0.19166666666666665</v>
       </c>
       <c r="G3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!G3</f>
-        <v>-0.2</v>
+        <v>-0.15000000000000002</v>
       </c>
       <c r="H3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!H3</f>
-        <v>-0.25044444444444441</v>
+        <v>-0.18783333333333332</v>
       </c>
       <c r="I3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!I3</f>
-        <v>0.64444444444444449</v>
+        <v>0.48333333333333339</v>
       </c>
       <c r="J3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!J3</f>
-        <v>0.82222222222222197</v>
+        <v>0.61666666666666647</v>
       </c>
       <c r="K3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!K3</f>
-        <v>1.0344444444444443</v>
+        <v>0.77583333333333326</v>
       </c>
       <c r="L3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!L3</f>
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="M3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!M3</f>
-        <v>0.53355555555555545</v>
+        <v>0.40016666666666667</v>
       </c>
       <c r="N3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!N3</f>
-        <v>0.37400000000000005</v>
+        <v>0.28050000000000003</v>
       </c>
       <c r="O3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!O3</f>
-        <v>0.50088888888888883</v>
+        <v>0.37566666666666659</v>
       </c>
       <c r="P3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!P3</f>
-        <v>0.22666666666666666</v>
+        <v>0.17</v>
       </c>
       <c r="Q3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!Q3</f>
-        <v>0.18699999999999994</v>
+        <v>0.14024999999999996</v>
       </c>
       <c r="R3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!R3</f>
-        <v>0.21777777777777779</v>
+        <v>0.16333333333333336</v>
       </c>
       <c r="S3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!S3</f>
-        <v>0.39600000000000002</v>
+        <v>0.29700000000000004</v>
       </c>
       <c r="T3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!T3</f>
-        <v>0.78200000000000003</v>
+        <v>0.58650000000000002</v>
       </c>
       <c r="U3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!U3</f>
-        <v>0.78555555555555534</v>
+        <v>0.58916666666666651</v>
       </c>
       <c r="V3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!V3</f>
-        <v>0.60977777777777764</v>
+        <v>0.4573333333333332</v>
       </c>
       <c r="W3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!W3</f>
-        <v>0.47777777777777775</v>
+        <v>0.35833333333333334</v>
       </c>
       <c r="X3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!X3</f>
-        <v>0.22444444444444439</v>
+        <v>0.16833333333333331</v>
       </c>
       <c r="Y3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!Y3</f>
-        <v>4.4888888888888881E-2</v>
+        <v>3.3666666666666664E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5507,99 +5507,99 @@
       </c>
       <c r="B7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!B7</f>
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!C7</f>
-        <v>0.27157499999999996</v>
+        <v>0.13578749999999998</v>
       </c>
       <c r="D7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!D7</f>
-        <v>0.20047499999999999</v>
+        <v>0.10023749999999999</v>
       </c>
       <c r="E7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!E7</f>
-        <v>0.23574375</v>
+        <v>0.117871875</v>
       </c>
       <c r="F7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!F7</f>
-        <v>0.24862499999999998</v>
+        <v>0.12431249999999999</v>
       </c>
       <c r="G7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!G7</f>
-        <v>0.25031249999999999</v>
+        <v>0.12515625</v>
       </c>
       <c r="H7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!H7</f>
-        <v>0.24671249999999997</v>
+        <v>0.12335624999999999</v>
       </c>
       <c r="I7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!I7</f>
-        <v>0.44364374999999995</v>
+        <v>0.22182187499999997</v>
       </c>
       <c r="J7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!J7</f>
-        <v>0.51888749999999995</v>
+        <v>0.25944374999999997</v>
       </c>
       <c r="K7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!K7</f>
-        <v>0.50768437499999997</v>
+        <v>0.25384218749999998</v>
       </c>
       <c r="L7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!L7</f>
-        <v>0.45260624999999988</v>
+        <v>0.22630312499999994</v>
       </c>
       <c r="M7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!M7</f>
-        <v>0.54601875</v>
+        <v>0.273009375</v>
       </c>
       <c r="N7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!N7</f>
-        <v>0.56896874999999991</v>
+        <v>0.28448437499999996</v>
       </c>
       <c r="O7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!O7</f>
-        <v>0.50861250000000002</v>
+        <v>0.25430625000000001</v>
       </c>
       <c r="P7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!P7</f>
-        <v>0.44718750000000002</v>
+        <v>0.22359375000000001</v>
       </c>
       <c r="Q7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!Q7</f>
-        <v>0.39768750000000003</v>
+        <v>0.19884375000000001</v>
       </c>
       <c r="R7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!R7</f>
-        <v>0.48959999999999992</v>
+        <v>0.24479999999999996</v>
       </c>
       <c r="S7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!S7</f>
-        <v>0.47429999999999994</v>
+        <v>0.23714999999999997</v>
       </c>
       <c r="T7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!T7</f>
-        <v>0.3646875</v>
+        <v>0.18234375</v>
       </c>
       <c r="U7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!U7</f>
-        <v>0.34182187499999989</v>
+        <v>0.17091093749999994</v>
       </c>
       <c r="V7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!V7</f>
-        <v>0.39445312500000002</v>
+        <v>0.19722656250000001</v>
       </c>
       <c r="W7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!W7</f>
-        <v>0.31092187499999996</v>
+        <v>0.15546093749999998</v>
       </c>
       <c r="X7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!X7</f>
-        <v>0.23428124999999997</v>
+        <v>0.11714062499999998</v>
       </c>
       <c r="Y7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!Y7</f>
-        <v>0.27253124999999995</v>
+        <v>0.13626562499999997</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -5608,55 +5608,55 @@
       </c>
       <c r="B8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!B8</f>
-        <v>-0.47230434782608688</v>
+        <v>-0.23615217391304344</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!C8</f>
-        <v>-0.4760869565217391</v>
+        <v>-0.23804347826086955</v>
       </c>
       <c r="D8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!D8</f>
-        <v>-0.49532608695652158</v>
+        <v>-0.24766304347826079</v>
       </c>
       <c r="E8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!E8</f>
-        <v>-0.51329347826086968</v>
+        <v>-0.25664673913043484</v>
       </c>
       <c r="F8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!F8</f>
-        <v>-0.47615217391304349</v>
+        <v>-0.23807608695652174</v>
       </c>
       <c r="G8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!G8</f>
-        <v>-0.51975000000000005</v>
+        <v>-0.25987500000000002</v>
       </c>
       <c r="H8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!H8</f>
-        <v>-0.45449999999999996</v>
+        <v>-0.22724999999999998</v>
       </c>
       <c r="I8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!I8</f>
-        <v>-0.20132608695652174</v>
+        <v>-0.10066304347826087</v>
       </c>
       <c r="J8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!J8</f>
-        <v>-3.5152173913043469E-2</v>
+        <v>-1.7576086956521735E-2</v>
       </c>
       <c r="K8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!K8</f>
-        <v>-2.9934782608695649E-2</v>
+        <v>-1.4967391304347825E-2</v>
       </c>
       <c r="L8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!L8</f>
-        <v>6.1956521739130424E-2</v>
+        <v>3.0978260869565212E-2</v>
       </c>
       <c r="M8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!M8</f>
-        <v>1.9956521739130435E-2</v>
+        <v>9.9782608695652177E-3</v>
       </c>
       <c r="N8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!N8</f>
-        <v>6.4565217391304337E-3</v>
+        <v>3.2282608695652169E-3</v>
       </c>
       <c r="O8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!O8</f>
@@ -5664,43 +5664,43 @@
       </c>
       <c r="P8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!P8</f>
-        <v>-5.1130434782608696E-2</v>
+        <v>-2.5565217391304348E-2</v>
       </c>
       <c r="Q8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!Q8</f>
-        <v>-9.2217391304347821E-2</v>
+        <v>-4.610869565217391E-2</v>
       </c>
       <c r="R8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!R8</f>
-        <v>-0.1323586956521739</v>
+        <v>-6.6179347826086948E-2</v>
       </c>
       <c r="S8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!S8</f>
-        <v>-0.17432608695652177</v>
+        <v>-8.7163043478260885E-2</v>
       </c>
       <c r="T8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!T8</f>
-        <v>-0.15019565217391304</v>
+        <v>-7.5097826086956518E-2</v>
       </c>
       <c r="U8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!U8</f>
-        <v>-0.18958695652173915</v>
+        <v>-9.4793478260869576E-2</v>
       </c>
       <c r="V8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!V8</f>
-        <v>-0.13173913043478258</v>
+        <v>-6.586956521739129E-2</v>
       </c>
       <c r="W8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!W8</f>
-        <v>-0.24945652173913041</v>
+        <v>-0.12472826086956521</v>
       </c>
       <c r="X8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!X8</f>
-        <v>-0.30358695652173912</v>
+        <v>-0.15179347826086956</v>
       </c>
       <c r="Y8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!Y8</f>
-        <v>-0.33593478260869564</v>
+        <v>-0.16796739130434782</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -5709,99 +5709,99 @@
       </c>
       <c r="B9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!B9</f>
-        <v>-0.56808387096774182</v>
+        <v>-0.28404193548387091</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!C9</f>
-        <v>-0.58354838709677403</v>
+        <v>-0.29177419354838702</v>
       </c>
       <c r="D9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!D9</f>
-        <v>-0.58346129032258054</v>
+        <v>-0.29173064516129027</v>
       </c>
       <c r="E9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!E9</f>
-        <v>-0.59818064516129021</v>
+        <v>-0.29909032258064511</v>
       </c>
       <c r="F9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!F9</f>
-        <v>-0.59036129032258067</v>
+        <v>-0.29518064516129033</v>
       </c>
       <c r="G9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!G9</f>
-        <v>-0.57667741935483874</v>
+        <v>-0.28833870967741937</v>
       </c>
       <c r="H9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!H9</f>
-        <v>-0.49453548387096774</v>
+        <v>-0.24726774193548387</v>
       </c>
       <c r="I9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!I9</f>
-        <v>-0.40465161290322582</v>
+        <v>-0.20232580645161291</v>
       </c>
       <c r="J9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!J9</f>
-        <v>-0.39193548387096766</v>
+        <v>-0.19596774193548383</v>
       </c>
       <c r="K9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!K9</f>
-        <v>-0.39385161290322568</v>
+        <v>-0.19692580645161284</v>
       </c>
       <c r="L9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!L9</f>
-        <v>-0.3869419354838709</v>
+        <v>-0.19347096774193545</v>
       </c>
       <c r="M9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!M9</f>
-        <v>-0.37268709677419354</v>
+        <v>-0.18634354838709677</v>
       </c>
       <c r="N9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!N9</f>
-        <v>-0.38130967741935484</v>
+        <v>-0.19065483870967742</v>
       </c>
       <c r="O9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!O9</f>
-        <v>-0.39967741935483869</v>
+        <v>-0.19983870967741935</v>
       </c>
       <c r="P9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!P9</f>
-        <v>-0.44032258064516122</v>
+        <v>-0.22016129032258061</v>
       </c>
       <c r="Q9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!Q9</f>
-        <v>-0.45967741935483869</v>
+        <v>-0.22983870967741934</v>
       </c>
       <c r="R9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!R9</f>
-        <v>-0.46565806451612901</v>
+        <v>-0.23282903225806451</v>
       </c>
       <c r="S9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!S9</f>
-        <v>-0.48663870967741929</v>
+        <v>-0.24331935483870964</v>
       </c>
       <c r="T9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!T9</f>
-        <v>-0.4760903225806451</v>
+        <v>-0.23804516129032255</v>
       </c>
       <c r="U9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!U9</f>
-        <v>-0.50225806451612909</v>
+        <v>-0.25112903225806454</v>
       </c>
       <c r="V9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!V9</f>
-        <v>-0.52350967741935484</v>
+        <v>-0.26175483870967742</v>
       </c>
       <c r="W9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!W9</f>
-        <v>-0.54992903225806455</v>
+        <v>-0.27496451612903228</v>
       </c>
       <c r="X9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!X9</f>
-        <v>-0.56983548387096772</v>
+        <v>-0.28491774193548386</v>
       </c>
       <c r="Y9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S2'!Y9</f>
-        <v>-0.5805870967741934</v>
+        <v>-0.2902935483870967</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -6110,99 +6110,99 @@
       </c>
       <c r="B2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!B2</f>
-        <v>0.54261744966442949</v>
+        <v>0.43409395973154358</v>
       </c>
       <c r="C2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!C2</f>
-        <v>0.61157718120805371</v>
+        <v>0.48926174496644298</v>
       </c>
       <c r="D2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!D2</f>
-        <v>0.57057885906040273</v>
+        <v>0.45646308724832219</v>
       </c>
       <c r="E2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!E2</f>
-        <v>0.56481543624161079</v>
+        <v>0.45185234899328858</v>
       </c>
       <c r="F2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!F2</f>
-        <v>0.55812080536912756</v>
+        <v>0.446496644295302</v>
       </c>
       <c r="G2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!G2</f>
-        <v>0.58454697986577164</v>
+        <v>0.46763758389261734</v>
       </c>
       <c r="H2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!H2</f>
-        <v>0.61409395973154368</v>
+        <v>0.49127516778523489</v>
       </c>
       <c r="I2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!I2</f>
-        <v>1.1731711409395975</v>
+        <v>0.93853691275167794</v>
       </c>
       <c r="J2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!J2</f>
-        <v>1.3523154362416108</v>
+        <v>1.0818523489932887</v>
       </c>
       <c r="K2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!K2</f>
-        <v>1.2885906040268456</v>
+        <v>1.0308724832214764</v>
       </c>
       <c r="L2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!L2</f>
-        <v>1.2458053691275168</v>
+        <v>0.99664429530201348</v>
       </c>
       <c r="M2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!M2</f>
-        <v>1.2809899328859062</v>
+        <v>1.0247919463087249</v>
       </c>
       <c r="N2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!N2</f>
-        <v>1.3631375838926172</v>
+        <v>1.0905100671140937</v>
       </c>
       <c r="O2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!O2</f>
-        <v>1.2702181208053691</v>
+        <v>1.0161744966442954</v>
       </c>
       <c r="P2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!P2</f>
-        <v>0.90855704697986561</v>
+        <v>0.72684563758389253</v>
       </c>
       <c r="Q2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!Q2</f>
-        <v>1.1760402684563758</v>
+        <v>0.94083221476510059</v>
       </c>
       <c r="R2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!R2</f>
-        <v>1.2270805369127518</v>
+        <v>0.98166442953020128</v>
       </c>
       <c r="S2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!S2</f>
-        <v>1.1162416107382551</v>
+        <v>0.89299328859060401</v>
       </c>
       <c r="T2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!T2</f>
-        <v>0.87558724832214763</v>
+        <v>0.70046979865771808</v>
       </c>
       <c r="U2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!U2</f>
-        <v>0.81850671140939602</v>
+        <v>0.65480536912751675</v>
       </c>
       <c r="V2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!V2</f>
-        <v>0.8676845637583892</v>
+        <v>0.69414765100671139</v>
       </c>
       <c r="W2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!W2</f>
-        <v>0.83612416107382548</v>
+        <v>0.66889932885906034</v>
       </c>
       <c r="X2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!X2</f>
-        <v>0.57714765100671128</v>
+        <v>0.46171812080536906</v>
       </c>
       <c r="Y2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!Y2</f>
-        <v>0.57221476510067126</v>
+        <v>0.45777181208053697</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6211,99 +6211,99 @@
       </c>
       <c r="B3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!B3</f>
-        <v>2.1999999999999999E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="C3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!C3</f>
-        <v>-0.13333333333333333</v>
+        <v>-0.1</v>
       </c>
       <c r="D3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!D3</f>
-        <v>-0.14588888888888887</v>
+        <v>-0.10941666666666666</v>
       </c>
       <c r="E3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!E3</f>
-        <v>-0.20900000000000002</v>
+        <v>-0.15675000000000003</v>
       </c>
       <c r="F3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!F3</f>
-        <v>-0.25811111111111107</v>
+        <v>-0.1935833333333333</v>
       </c>
       <c r="G3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!G3</f>
-        <v>-0.19600000000000004</v>
+        <v>-0.14700000000000002</v>
       </c>
       <c r="H3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!H3</f>
-        <v>-0.25555555555555554</v>
+        <v>-0.19166666666666668</v>
       </c>
       <c r="I3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!I3</f>
-        <v>0.65088888888888896</v>
+        <v>0.48816666666666669</v>
       </c>
       <c r="J3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!J3</f>
-        <v>0.83866666666666667</v>
+        <v>0.629</v>
       </c>
       <c r="K3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!K3</f>
-        <v>1.0555555555555554</v>
+        <v>0.79166666666666652</v>
       </c>
       <c r="L3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!L3</f>
-        <v>0.60599999999999998</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="M3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!M3</f>
-        <v>0.53355555555555545</v>
+        <v>0.40016666666666667</v>
       </c>
       <c r="N3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!N3</f>
-        <v>0.37022222222222223</v>
+        <v>0.27766666666666667</v>
       </c>
       <c r="O3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!O3</f>
-        <v>0.51622222222222214</v>
+        <v>0.3871666666666666</v>
       </c>
       <c r="P3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!P3</f>
-        <v>0.21777777777777779</v>
+        <v>0.16333333333333336</v>
       </c>
       <c r="Q3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!Q3</f>
-        <v>0.18699999999999994</v>
+        <v>0.14024999999999996</v>
       </c>
       <c r="R3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!R3</f>
-        <v>0.21999999999999997</v>
+        <v>0.16499999999999998</v>
       </c>
       <c r="S3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!S3</f>
-        <v>0.39999999999999991</v>
+        <v>0.29999999999999993</v>
       </c>
       <c r="T3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!T3</f>
-        <v>0.75133333333333341</v>
+        <v>0.56350000000000011</v>
       </c>
       <c r="U3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!U3</f>
-        <v>0.78555555555555534</v>
+        <v>0.58916666666666651</v>
       </c>
       <c r="V3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!V3</f>
-        <v>0.61599999999999977</v>
+        <v>0.46199999999999991</v>
       </c>
       <c r="W3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!W3</f>
-        <v>0.47777777777777775</v>
+        <v>0.35833333333333334</v>
       </c>
       <c r="X3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!X3</f>
-        <v>0.21777777777777776</v>
+        <v>0.16333333333333333</v>
       </c>
       <c r="Y3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!Y3</f>
-        <v>4.3999999999999997E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6615,99 +6615,99 @@
       </c>
       <c r="B7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!B7</f>
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!C7</f>
-        <v>0.26624999999999999</v>
+        <v>0.13312499999999999</v>
       </c>
       <c r="D7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!D7</f>
-        <v>0.20047499999999999</v>
+        <v>0.10023749999999999</v>
       </c>
       <c r="E7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!E7</f>
-        <v>0.24050624999999995</v>
+        <v>0.12025312499999997</v>
       </c>
       <c r="F7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!F7</f>
-        <v>0.2461875</v>
+        <v>0.12309375</v>
       </c>
       <c r="G7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!G7</f>
-        <v>0.25031249999999999</v>
+        <v>0.12515625</v>
       </c>
       <c r="H7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!H7</f>
-        <v>0.23703750000000001</v>
+        <v>0.11851875000000001</v>
       </c>
       <c r="I7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!I7</f>
-        <v>0.45708749999999992</v>
+        <v>0.22854374999999996</v>
       </c>
       <c r="J7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!J7</f>
-        <v>0.51374999999999993</v>
+        <v>0.25687499999999996</v>
       </c>
       <c r="K7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!K7</f>
-        <v>0.50768437499999997</v>
+        <v>0.25384218749999998</v>
       </c>
       <c r="L7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!L7</f>
-        <v>0.45260624999999988</v>
+        <v>0.22630312499999994</v>
       </c>
       <c r="M7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!M7</f>
-        <v>0.52995937500000001</v>
+        <v>0.26497968750000001</v>
       </c>
       <c r="N7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!N7</f>
-        <v>0.55223437499999994</v>
+        <v>0.27611718749999997</v>
       </c>
       <c r="O7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!O7</f>
-        <v>0.51888749999999995</v>
+        <v>0.25944374999999997</v>
       </c>
       <c r="P7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!P7</f>
-        <v>0.45165937499999997</v>
+        <v>0.22582968749999999</v>
       </c>
       <c r="Q7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!Q7</f>
-        <v>0.39374999999999999</v>
+        <v>0.19687499999999999</v>
       </c>
       <c r="R7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!R7</f>
-        <v>0.48959999999999992</v>
+        <v>0.24479999999999996</v>
       </c>
       <c r="S7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!S7</f>
-        <v>0.47429999999999994</v>
+        <v>0.23714999999999997</v>
       </c>
       <c r="T7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!T7</f>
-        <v>0.3646875</v>
+        <v>0.18234375</v>
       </c>
       <c r="U7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!U7</f>
-        <v>0.3316687499999999</v>
+        <v>0.16583437499999995</v>
       </c>
       <c r="V7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!V7</f>
-        <v>0.40640625000000002</v>
+        <v>0.20320312500000001</v>
       </c>
       <c r="W7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!W7</f>
-        <v>0.31720312499999997</v>
+        <v>0.15860156249999999</v>
       </c>
       <c r="X7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!X7</f>
-        <v>0.23428124999999997</v>
+        <v>0.11714062499999998</v>
       </c>
       <c r="Y7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!Y7</f>
-        <v>0.26451562499999998</v>
+        <v>0.13225781249999999</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -6716,55 +6716,55 @@
       </c>
       <c r="B8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!B8</f>
-        <v>-0.46767391304347816</v>
+        <v>-0.23383695652173908</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!C8</f>
-        <v>-0.4760869565217391</v>
+        <v>-0.23804347826086955</v>
       </c>
       <c r="D8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!D8</f>
-        <v>-0.51554347826086944</v>
+        <v>-0.25777173913043472</v>
       </c>
       <c r="E8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!E8</f>
-        <v>-0.52884782608695668</v>
+        <v>-0.26442391304347834</v>
       </c>
       <c r="F8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!F8</f>
-        <v>-0.49558695652173912</v>
+        <v>-0.24779347826086956</v>
       </c>
       <c r="G8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!G8</f>
-        <v>-0.53025000000000011</v>
+        <v>-0.26512500000000006</v>
       </c>
       <c r="H8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!H8</f>
-        <v>-0.441</v>
+        <v>-0.2205</v>
       </c>
       <c r="I8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!I8</f>
-        <v>-0.2033804347826087</v>
+        <v>-0.10169021739130435</v>
       </c>
       <c r="J8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!J8</f>
-        <v>-3.5152173913043469E-2</v>
+        <v>-1.7576086956521735E-2</v>
       </c>
       <c r="K8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!K8</f>
-        <v>-2.8760869565217385E-2</v>
+        <v>-1.4380434782608692E-2</v>
       </c>
       <c r="L8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!L8</f>
-        <v>6.2576086956521726E-2</v>
+        <v>3.1288043478260863E-2</v>
       </c>
       <c r="M8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!M8</f>
-        <v>1.9760869565217391E-2</v>
+        <v>9.8804347826086953E-3</v>
       </c>
       <c r="N8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!N8</f>
-        <v>6.5869565217391299E-3</v>
+        <v>3.293478260869565E-3</v>
       </c>
       <c r="O8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!O8</f>
@@ -6772,43 +6772,43 @@
       </c>
       <c r="P8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!P8</f>
-        <v>-5.2173913043478258E-2</v>
+        <v>-2.6086956521739129E-2</v>
       </c>
       <c r="Q8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!Q8</f>
-        <v>-9.1304347826086957E-2</v>
+        <v>-4.5652173913043478E-2</v>
       </c>
       <c r="R8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!R8</f>
-        <v>-0.13369565217391305</v>
+        <v>-6.6847826086956524E-2</v>
       </c>
       <c r="S8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!S8</f>
-        <v>-0.17784782608695654</v>
+        <v>-8.892391304347827E-2</v>
       </c>
       <c r="T8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!T8</f>
-        <v>-0.15479347826086956</v>
+        <v>-7.739673913043478E-2</v>
       </c>
       <c r="U8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!U8</f>
-        <v>-0.1821521739130435</v>
+        <v>-9.1076086956521751E-2</v>
       </c>
       <c r="V8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!V8</f>
-        <v>-0.13043478260869565</v>
+        <v>-6.5217391304347824E-2</v>
       </c>
       <c r="W8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!W8</f>
-        <v>-0.24456521739130432</v>
+        <v>-0.12228260869565216</v>
       </c>
       <c r="X8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!X8</f>
-        <v>-0.30668478260869558</v>
+        <v>-0.15334239130434779</v>
       </c>
       <c r="Y8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!Y8</f>
-        <v>-0.33926086956521745</v>
+        <v>-0.16963043478260872</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -6817,99 +6817,99 @@
       </c>
       <c r="B9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!B9</f>
-        <v>-0.57967741935483863</v>
+        <v>-0.28983870967741932</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!C9</f>
-        <v>-0.58354838709677403</v>
+        <v>-0.29177419354838702</v>
       </c>
       <c r="D9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!D9</f>
-        <v>-0.57756774193548377</v>
+        <v>-0.28878387096774188</v>
       </c>
       <c r="E9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!E9</f>
-        <v>-0.58633548387096768</v>
+        <v>-0.29316774193548384</v>
       </c>
       <c r="F9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!F9</f>
-        <v>-0.59036129032258067</v>
+        <v>-0.29518064516129033</v>
       </c>
       <c r="G9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!G9</f>
-        <v>-0.57096774193548383</v>
+        <v>-0.28548387096774192</v>
       </c>
       <c r="H9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!H9</f>
-        <v>-0.47999032258064506</v>
+        <v>-0.23999516129032253</v>
       </c>
       <c r="I9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!I9</f>
-        <v>-0.39663870967741938</v>
+        <v>-0.19831935483870969</v>
       </c>
       <c r="J9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!J9</f>
-        <v>-0.39193548387096766</v>
+        <v>-0.19596774193548383</v>
       </c>
       <c r="K9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!K9</f>
-        <v>-0.38612903225806444</v>
+        <v>-0.19306451612903222</v>
       </c>
       <c r="L9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!L9</f>
-        <v>-0.38314838709677418</v>
+        <v>-0.19157419354838709</v>
       </c>
       <c r="M9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!M9</f>
-        <v>-0.37645161290322582</v>
+        <v>-0.18822580645161291</v>
       </c>
       <c r="N9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!N9</f>
-        <v>-0.38516129032258073</v>
+        <v>-0.19258064516129036</v>
       </c>
       <c r="O9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!O9</f>
-        <v>-0.40367419354838713</v>
+        <v>-0.20183709677419356</v>
       </c>
       <c r="P9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!P9</f>
-        <v>-0.44912903225806444</v>
+        <v>-0.22456451612903222</v>
       </c>
       <c r="Q9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!Q9</f>
-        <v>-0.45967741935483869</v>
+        <v>-0.22983870967741934</v>
       </c>
       <c r="R9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!R9</f>
-        <v>-0.48466451612903222</v>
+        <v>-0.24233225806451611</v>
       </c>
       <c r="S9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!S9</f>
-        <v>-0.47232580645161276</v>
+        <v>-0.23616290322580638</v>
       </c>
       <c r="T9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!T9</f>
-        <v>-0.48094838709677418</v>
+        <v>-0.24047419354838709</v>
       </c>
       <c r="U9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!U9</f>
-        <v>-0.50728064516129034</v>
+        <v>-0.25364032258064517</v>
       </c>
       <c r="V9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!V9</f>
-        <v>-0.53419354838709676</v>
+        <v>-0.26709677419354838</v>
       </c>
       <c r="W9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!W9</f>
-        <v>-0.54437419354838701</v>
+        <v>-0.2721870967741935</v>
       </c>
       <c r="X9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!X9</f>
-        <v>-0.55290967741935482</v>
+        <v>-0.27645483870967741</v>
       </c>
       <c r="Y9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Summer, S3'!Y9</f>
-        <v>-0.58633548387096757</v>
+        <v>-0.29316774193548378</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -12117,8 +12117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F800E73-75A4-4D1F-BCBA-6492AF8AC3AA}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12142,14 +12142,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D2" s="1">
         <f>B2/SUM($B$2:$B$9)</f>
-        <v>0.23809523809523808</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -12158,14 +12158,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D9" si="0">B3/SUM($B$2:$B$9)</f>
-        <v>0.19047619047619047</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -12197,7 +12197,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>9.5238095238095233E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>4.7619047619047616E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -12222,14 +12222,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>9.5238095238095233E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -12241,11 +12241,11 @@
         <v>2</v>
       </c>
       <c r="C8" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>9.5238095238095233E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -12254,14 +12254,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>9.5238095238095233E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -23780,99 +23780,99 @@
       </c>
       <c r="B2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!B2</f>
-        <v>3.8338644057495204</v>
+        <v>3.0670915245996162</v>
       </c>
       <c r="C2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!C2</f>
-        <v>3.6905887402221635</v>
+        <v>2.952470992177731</v>
       </c>
       <c r="D2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!D2</f>
-        <v>3.55913316613369</v>
+        <v>2.847306532906952</v>
       </c>
       <c r="E2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!E2</f>
-        <v>3.6665553058094433</v>
+        <v>2.9332442446475548</v>
       </c>
       <c r="F2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!F2</f>
-        <v>3.5630933013986859</v>
+        <v>2.8504746411189488</v>
       </c>
       <c r="G2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!G2</f>
-        <v>3.5678389006641495</v>
+        <v>2.8542711205313198</v>
       </c>
       <c r="H2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!H2</f>
-        <v>3.6007700316445455</v>
+        <v>2.8806160253156365</v>
       </c>
       <c r="I2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!I2</f>
-        <v>4.6737870261036276</v>
+        <v>3.7390296208829019</v>
       </c>
       <c r="J2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!J2</f>
-        <v>4.7672291872845429</v>
+        <v>3.8137833498276343</v>
       </c>
       <c r="K2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!K2</f>
-        <v>4.7217474023940698</v>
+        <v>3.7773979219152558</v>
       </c>
       <c r="L2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!L2</f>
-        <v>4.7074119654944653</v>
+        <v>3.7659295723955726</v>
       </c>
       <c r="M2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!M2</f>
-        <v>4.8063383351590669</v>
+        <v>3.8450706681272537</v>
       </c>
       <c r="N2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!N2</f>
-        <v>4.7545998540701886</v>
+        <v>3.8036798832561507</v>
       </c>
       <c r="O2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!O2</f>
-        <v>4.6704337315537146</v>
+        <v>3.7363469852429714</v>
       </c>
       <c r="P2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!P2</f>
-        <v>4.0628426633520567</v>
+        <v>3.2502741306816456</v>
       </c>
       <c r="Q2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!Q2</f>
-        <v>4.3709819426550425</v>
+        <v>3.4967855541240342</v>
       </c>
       <c r="R2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!R2</f>
-        <v>4.7521306142951438</v>
+        <v>3.8017044914361149</v>
       </c>
       <c r="S2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!S2</f>
-        <v>4.6797462101416345</v>
+        <v>3.7437969681133074</v>
       </c>
       <c r="T2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!T2</f>
-        <v>4.4386059347625224</v>
+        <v>3.5508847478100183</v>
       </c>
       <c r="U2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!U2</f>
-        <v>4.2327949384578982</v>
+        <v>3.3862359507663187</v>
       </c>
       <c r="V2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!V2</f>
-        <v>4.2028916799786762</v>
+        <v>3.3623133439829411</v>
       </c>
       <c r="W2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!W2</f>
-        <v>4.0161058517336254</v>
+        <v>3.2128846813869005</v>
       </c>
       <c r="X2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!X2</f>
-        <v>3.6271447553052374</v>
+        <v>2.9017158042441897</v>
       </c>
       <c r="Y2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!Y2</f>
-        <v>3.5485621811434198</v>
+        <v>2.8388497449147359</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -23881,99 +23881,99 @@
       </c>
       <c r="B3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!B3</f>
-        <v>2.2186252434879794</v>
+        <v>1.6639689326159846</v>
       </c>
       <c r="C3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!C3</f>
-        <v>2.155482653575167</v>
+        <v>1.6166119901813754</v>
       </c>
       <c r="D3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!D3</f>
-        <v>2.0639262317538183</v>
+        <v>1.5479446738153637</v>
       </c>
       <c r="E3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!E3</f>
-        <v>2.0468364980096196</v>
+        <v>1.5351273735072146</v>
       </c>
       <c r="F3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!F3</f>
-        <v>2.0674035343276507</v>
+        <v>1.5505526507457379</v>
       </c>
       <c r="G3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!G3</f>
-        <v>2.2073923162661524</v>
+        <v>1.6555442371996143</v>
       </c>
       <c r="H3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!H3</f>
-        <v>2.6611264190536894</v>
+        <v>1.9958448142902672</v>
       </c>
       <c r="I3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!I3</f>
-        <v>3.1067617913698342</v>
+        <v>2.3300713435273757</v>
       </c>
       <c r="J3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!J3</f>
-        <v>3.3774740567400339</v>
+        <v>2.5331055425550253</v>
       </c>
       <c r="K3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!K3</f>
-        <v>3.4794857349388915</v>
+        <v>2.6096143012041688</v>
       </c>
       <c r="L3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!L3</f>
-        <v>3.471959067129363</v>
+        <v>2.6039693003470221</v>
       </c>
       <c r="M3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!M3</f>
-        <v>3.3892788407272865</v>
+        <v>2.541959130545465</v>
       </c>
       <c r="N3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!N3</f>
-        <v>3.266333918806716</v>
+        <v>2.4497504391050371</v>
       </c>
       <c r="O3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!O3</f>
-        <v>3.106304207127204</v>
+        <v>2.329728155345403</v>
       </c>
       <c r="P3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!P3</f>
-        <v>2.8930836627642016</v>
+        <v>2.1698127470731512</v>
       </c>
       <c r="Q3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!Q3</f>
-        <v>2.9828789288180189</v>
+        <v>2.237159196613514</v>
       </c>
       <c r="R3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!R3</f>
-        <v>3.3179919348718268</v>
+        <v>2.48849395115387</v>
       </c>
       <c r="S3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!S3</f>
-        <v>3.966964410759604</v>
+        <v>2.9752233080697028</v>
       </c>
       <c r="T3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!T3</f>
-        <v>3.778314558941211</v>
+        <v>2.8337359192059082</v>
       </c>
       <c r="U3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!U3</f>
-        <v>3.4900552226599073</v>
+        <v>2.6175414169949303</v>
       </c>
       <c r="V3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!V3</f>
-        <v>3.3833763663750855</v>
+        <v>2.5375322747813143</v>
       </c>
       <c r="W3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!W3</f>
-        <v>3.1554684879002695</v>
+        <v>2.3666013659252023</v>
       </c>
       <c r="X3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!X3</f>
-        <v>2.8878904604597921</v>
+        <v>2.1659178453448442</v>
       </c>
       <c r="Y3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!Y3</f>
-        <v>2.5544704996320013</v>
+        <v>1.9158528747240009</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -24285,99 +24285,99 @@
       </c>
       <c r="B7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!B7</f>
-        <v>1.3118061198524886</v>
+        <v>0.65590305992624431</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!C7</f>
-        <v>1.2334722075298434</v>
+        <v>0.61673610376492172</v>
       </c>
       <c r="D7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!D7</f>
-        <v>1.2021177135757306</v>
+        <v>0.6010588567878653</v>
       </c>
       <c r="E7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!E7</f>
-        <v>1.2167561786917722</v>
+        <v>0.60837808934588611</v>
       </c>
       <c r="F7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!F7</f>
-        <v>1.230076974152998</v>
+        <v>0.615038487076499</v>
       </c>
       <c r="G7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!G7</f>
-        <v>1.3330225043175088</v>
+        <v>0.6665112521587544</v>
       </c>
       <c r="H7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!H7</f>
-        <v>1.5057689689209468</v>
+        <v>0.7528844844604734</v>
       </c>
       <c r="I7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!I7</f>
-        <v>1.8259324879522392</v>
+        <v>0.91296624397611958</v>
       </c>
       <c r="J7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!J7</f>
-        <v>1.9146048609358632</v>
+        <v>0.95730243046793162</v>
       </c>
       <c r="K7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!K7</f>
-        <v>1.9797586687620063</v>
+        <v>0.98987933438100317</v>
       </c>
       <c r="L7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!L7</f>
-        <v>1.947786865680234</v>
+        <v>0.97389343284011698</v>
       </c>
       <c r="M7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!M7</f>
-        <v>1.9776468626988524</v>
+        <v>0.98882343134942619</v>
       </c>
       <c r="N7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!N7</f>
-        <v>1.967720540611833</v>
+        <v>0.9838602703059165</v>
       </c>
       <c r="O7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!O7</f>
-        <v>1.9384953086545038</v>
+        <v>0.96924765432725191</v>
       </c>
       <c r="P7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!P7</f>
-        <v>1.8065014582580796</v>
+        <v>0.90325072912903981</v>
       </c>
       <c r="Q7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!Q7</f>
-        <v>1.8107679381522883</v>
+        <v>0.90538396907614416</v>
       </c>
       <c r="R7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!R7</f>
-        <v>1.7566636579006634</v>
+        <v>0.87833182895033168</v>
       </c>
       <c r="S7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!S7</f>
-        <v>1.8410185765273619</v>
+        <v>0.92050928826368095</v>
       </c>
       <c r="T7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!T7</f>
-        <v>1.7836739224842426</v>
+        <v>0.89183696124212131</v>
       </c>
       <c r="U7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!U7</f>
-        <v>1.755648975964603</v>
+        <v>0.8778244879823015</v>
       </c>
       <c r="V7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!V7</f>
-        <v>1.7168244703574784</v>
+        <v>0.85841223517873921</v>
       </c>
       <c r="W7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!W7</f>
-        <v>1.6579095362585741</v>
+        <v>0.82895476812928703</v>
       </c>
       <c r="X7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!X7</f>
-        <v>1.4880462984921947</v>
+        <v>0.74402314924609736</v>
       </c>
       <c r="Y7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!Y7</f>
-        <v>1.3824132843925414</v>
+        <v>0.6912066421962707</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -24487,99 +24487,99 @@
       </c>
       <c r="B9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!B9</f>
-        <v>0.78148225982000397</v>
+        <v>0.39074112991000198</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!C9</f>
-        <v>0.74033519103678314</v>
+        <v>0.37016759551839157</v>
       </c>
       <c r="D9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!D9</f>
-        <v>0.72392150218120555</v>
+        <v>0.36196075109060277</v>
       </c>
       <c r="E9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!E9</f>
-        <v>0.71612809659511523</v>
+        <v>0.35806404829755761</v>
       </c>
       <c r="F9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!F9</f>
-        <v>0.75871604839403384</v>
+        <v>0.37935802419701692</v>
       </c>
       <c r="G9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!G9</f>
-        <v>0.92549705094924095</v>
+        <v>0.46274852547462048</v>
       </c>
       <c r="H9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!H9</f>
-        <v>1.5199845046933702</v>
+        <v>0.7599922523466851</v>
       </c>
       <c r="I9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!I9</f>
-        <v>1.8283406139462104</v>
+        <v>0.9141703069731052</v>
       </c>
       <c r="J9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!J9</f>
-        <v>1.8993084554295283</v>
+        <v>0.94965422771476415</v>
       </c>
       <c r="K9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!K9</f>
-        <v>1.8889218612794274</v>
+        <v>0.9444609306397137</v>
       </c>
       <c r="L9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!L9</f>
-        <v>1.9584999019450227</v>
+        <v>0.97924995097251133</v>
       </c>
       <c r="M9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!M9</f>
-        <v>1.9451669667885765</v>
+        <v>0.97258348339428824</v>
       </c>
       <c r="N9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!N9</f>
-        <v>1.8286663553362346</v>
+        <v>0.91433317766811728</v>
       </c>
       <c r="O9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!O9</f>
-        <v>1.7842491188992688</v>
+        <v>0.89212455944963442</v>
       </c>
       <c r="P9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!P9</f>
-        <v>1.5776742891114903</v>
+        <v>0.78883714455574516</v>
       </c>
       <c r="Q9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!Q9</f>
-        <v>1.4228369695639456</v>
+        <v>0.71141848478197278</v>
       </c>
       <c r="R9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!R9</f>
-        <v>1.4608929943060929</v>
+        <v>0.73044649715304644</v>
       </c>
       <c r="S9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!S9</f>
-        <v>1.590968156799998</v>
+        <v>0.79548407839999902</v>
       </c>
       <c r="T9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!T9</f>
-        <v>1.5634281672883086</v>
+        <v>0.78171408364415429</v>
       </c>
       <c r="U9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!U9</f>
-        <v>1.5131344961576494</v>
+        <v>0.75656724807882469</v>
       </c>
       <c r="V9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!V9</f>
-        <v>1.4817715270426268</v>
+        <v>0.74088576352131341</v>
       </c>
       <c r="W9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!W9</f>
-        <v>1.3668650340025816</v>
+        <v>0.68343251700129082</v>
       </c>
       <c r="X9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!X9</f>
-        <v>1.0792348155479161</v>
+        <v>0.53961740777395806</v>
       </c>
       <c r="Y9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S1'!Y9</f>
-        <v>0.9352450280460527</v>
+        <v>0.46762251402302635</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -24888,99 +24888,99 @@
       </c>
       <c r="B2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!B2</f>
-        <v>3.8338644057495204</v>
+        <v>3.0670915245996162</v>
       </c>
       <c r="C2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!C2</f>
-        <v>3.7274946276243854</v>
+        <v>2.9819957020995083</v>
       </c>
       <c r="D2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!D2</f>
-        <v>3.5235418344723533</v>
+        <v>2.8188334675778828</v>
       </c>
       <c r="E2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!E2</f>
-        <v>3.5932241996932546</v>
+        <v>2.8745793597546037</v>
       </c>
       <c r="F2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!F2</f>
-        <v>3.5630933013986859</v>
+        <v>2.8504746411189488</v>
       </c>
       <c r="G2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!G2</f>
-        <v>3.6391956786774333</v>
+        <v>2.9113565429419466</v>
       </c>
       <c r="H2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!H2</f>
-        <v>3.5287546310116547</v>
+        <v>2.8230037048093237</v>
       </c>
       <c r="I2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!I2</f>
-        <v>4.7672627666257004</v>
+        <v>3.81381021330056</v>
       </c>
       <c r="J2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!J2</f>
-        <v>4.8149014791573883</v>
+        <v>3.8519211833259108</v>
       </c>
       <c r="K2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!K2</f>
-        <v>4.8161823504419505</v>
+        <v>3.8529458803535608</v>
       </c>
       <c r="L2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!L2</f>
-        <v>4.6603378458395213</v>
+        <v>3.7282702766716169</v>
       </c>
       <c r="M2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!M2</f>
-        <v>4.7582749518074765</v>
+        <v>3.806619961445981</v>
       </c>
       <c r="N2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!N2</f>
-        <v>4.7070538555294865</v>
+        <v>3.7656430844235893</v>
       </c>
       <c r="O2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!O2</f>
-        <v>4.5770250569226398</v>
+        <v>3.661620045538112</v>
       </c>
       <c r="P2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!P2</f>
-        <v>4.1034710899855771</v>
+        <v>3.282776871988462</v>
       </c>
       <c r="Q2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!Q2</f>
-        <v>4.4584015815081433</v>
+        <v>3.5667212652065148</v>
       </c>
       <c r="R2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!R2</f>
-        <v>4.847173226581047</v>
+        <v>3.8777385812648375</v>
       </c>
       <c r="S2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!S2</f>
-        <v>4.7733411343444674</v>
+        <v>3.8186729074755736</v>
       </c>
       <c r="T2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!T2</f>
-        <v>4.4829919941101481</v>
+        <v>3.5863935952881185</v>
       </c>
       <c r="U2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!U2</f>
-        <v>4.2751228878424774</v>
+        <v>3.4200983102739819</v>
       </c>
       <c r="V2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!V2</f>
-        <v>4.1188338463791023</v>
+        <v>3.2950670771032819</v>
       </c>
       <c r="W2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!W2</f>
-        <v>3.9759447932162892</v>
+        <v>3.1807558345730316</v>
       </c>
       <c r="X2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!X2</f>
-        <v>3.6996876504113416</v>
+        <v>2.9597501203290735</v>
       </c>
       <c r="Y2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!Y2</f>
-        <v>3.5840478029548546</v>
+        <v>2.8672382423638836</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -24989,99 +24989,99 @@
       </c>
       <c r="B3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!B3</f>
-        <v>2.2186252434879794</v>
+        <v>1.6639689326159846</v>
       </c>
       <c r="C3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!C3</f>
-        <v>2.1123730005036636</v>
+        <v>1.5842797503777477</v>
       </c>
       <c r="D3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!D3</f>
-        <v>2.0226477071187419</v>
+        <v>1.5169857803390565</v>
       </c>
       <c r="E3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!E3</f>
-        <v>2.0468364980096196</v>
+        <v>1.5351273735072146</v>
       </c>
       <c r="F3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!F3</f>
-        <v>2.0674035343276507</v>
+        <v>1.5505526507457379</v>
       </c>
       <c r="G3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!G3</f>
-        <v>2.2294662394288141</v>
+        <v>1.6720996795716105</v>
       </c>
       <c r="H3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!H3</f>
-        <v>2.6079038906726155</v>
+        <v>1.9559279180044618</v>
       </c>
       <c r="I3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!I3</f>
-        <v>3.1067617913698342</v>
+        <v>2.3300713435273757</v>
       </c>
       <c r="J3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!J3</f>
-        <v>3.3774740567400339</v>
+        <v>2.5331055425550253</v>
       </c>
       <c r="K3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!K3</f>
-        <v>3.5142805922882805</v>
+        <v>2.6357104442162105</v>
       </c>
       <c r="L3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!L3</f>
-        <v>3.4025198857867758</v>
+        <v>2.5518899143400819</v>
       </c>
       <c r="M3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!M3</f>
-        <v>3.4570644175418321</v>
+        <v>2.5927983131563739</v>
       </c>
       <c r="N3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!N3</f>
-        <v>3.3316605971828506</v>
+        <v>2.498745447887138</v>
       </c>
       <c r="O3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!O3</f>
-        <v>3.1684302912697477</v>
+        <v>2.376322718452311</v>
       </c>
       <c r="P3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!P3</f>
-        <v>2.9509453360194855</v>
+        <v>2.2132090020146142</v>
       </c>
       <c r="Q3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!Q3</f>
-        <v>3.0127077181061992</v>
+        <v>2.2595307885796494</v>
       </c>
       <c r="R3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!R3</f>
-        <v>3.3179919348718268</v>
+        <v>2.48849395115387</v>
       </c>
       <c r="S3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!S3</f>
-        <v>3.8876251225444123</v>
+        <v>2.9157188419083093</v>
       </c>
       <c r="T3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!T3</f>
-        <v>3.8160977045306232</v>
+        <v>2.8620732783979674</v>
       </c>
       <c r="U3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!U3</f>
-        <v>3.5249557748865059</v>
+        <v>2.6437168311648795</v>
       </c>
       <c r="V3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!V3</f>
-        <v>3.4510438937025874</v>
+        <v>2.5882829202769404</v>
       </c>
       <c r="W3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!W3</f>
-        <v>3.1554684879002695</v>
+        <v>2.3666013659252023</v>
       </c>
       <c r="X3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!X3</f>
-        <v>2.830132651250596</v>
+        <v>2.1225994884379471</v>
       </c>
       <c r="Y3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!Y3</f>
-        <v>2.5800152046283218</v>
+        <v>1.9350114034712413</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -25393,99 +25393,99 @@
       </c>
       <c r="B7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!B7</f>
-        <v>1.2855699974554389</v>
+        <v>0.64278499872771944</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!C7</f>
-        <v>1.2211374854545449</v>
+        <v>0.61056874272727246</v>
       </c>
       <c r="D7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!D7</f>
-        <v>1.1780753593042159</v>
+        <v>0.58903767965210796</v>
       </c>
       <c r="E7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!E7</f>
-        <v>1.1924210551179368</v>
+        <v>0.59621052755896842</v>
       </c>
       <c r="F7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!F7</f>
-        <v>1.242377743894528</v>
+        <v>0.62118887194726402</v>
       </c>
       <c r="G7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!G7</f>
-        <v>1.3330225043175088</v>
+        <v>0.6665112521587544</v>
       </c>
       <c r="H7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!H7</f>
-        <v>1.4907112792317372</v>
+        <v>0.74535563961586859</v>
       </c>
       <c r="I7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!I7</f>
-        <v>1.8441918128317616</v>
+        <v>0.92209590641588079</v>
       </c>
       <c r="J7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!J7</f>
-        <v>1.9528969581545805</v>
+        <v>0.97644847907729027</v>
       </c>
       <c r="K7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!K7</f>
-        <v>1.9599610820743862</v>
+        <v>0.97998054103719312</v>
       </c>
       <c r="L7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!L7</f>
-        <v>1.947786865680234</v>
+        <v>0.97389343284011698</v>
       </c>
       <c r="M7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!M7</f>
-        <v>1.9974233313258409</v>
+        <v>0.99871166566292047</v>
       </c>
       <c r="N7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!N7</f>
-        <v>1.9283661297995962</v>
+        <v>0.9641830648997981</v>
       </c>
       <c r="O7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!O7</f>
-        <v>1.9384953086545038</v>
+        <v>0.96924765432725191</v>
       </c>
       <c r="P7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!P7</f>
-        <v>1.7884364436754987</v>
+        <v>0.89421822183774935</v>
       </c>
       <c r="Q7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!Q7</f>
-        <v>1.7926602587707654</v>
+        <v>0.8963301293853827</v>
       </c>
       <c r="R7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!R7</f>
-        <v>1.72153038474265</v>
+        <v>0.86076519237132498</v>
       </c>
       <c r="S7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!S7</f>
-        <v>1.8041982049968146</v>
+        <v>0.9020991024984073</v>
       </c>
       <c r="T7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!T7</f>
-        <v>1.7480004440345578</v>
+        <v>0.87400022201727889</v>
       </c>
       <c r="U7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!U7</f>
-        <v>1.755648975964603</v>
+        <v>0.8778244879823015</v>
       </c>
       <c r="V7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!V7</f>
-        <v>1.7339927150610532</v>
+        <v>0.86699635753052662</v>
       </c>
       <c r="W7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!W7</f>
-        <v>1.6579095362585741</v>
+        <v>0.82895476812928703</v>
       </c>
       <c r="X7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!X7</f>
-        <v>1.4880462984921947</v>
+        <v>0.74402314924609736</v>
       </c>
       <c r="Y7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!Y7</f>
-        <v>1.3824132843925414</v>
+        <v>0.6912066421962707</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -25595,99 +25595,99 @@
       </c>
       <c r="B9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!B9</f>
-        <v>0.77366743722180387</v>
+        <v>0.38683371861090193</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!C9</f>
-        <v>0.74773854294715092</v>
+        <v>0.37386927147357546</v>
       </c>
       <c r="D9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!D9</f>
-        <v>0.7094430721375814</v>
+        <v>0.3547215360687907</v>
       </c>
       <c r="E9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!E9</f>
-        <v>0.71612809659511523</v>
+        <v>0.35806404829755761</v>
       </c>
       <c r="F9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!F9</f>
-        <v>0.77389036936191447</v>
+        <v>0.38694518468095723</v>
       </c>
       <c r="G9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!G9</f>
-        <v>0.94400699196822568</v>
+        <v>0.47200349598411284</v>
       </c>
       <c r="H9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!H9</f>
-        <v>1.5047846596464365</v>
+        <v>0.75239232982321824</v>
       </c>
       <c r="I9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!I9</f>
-        <v>1.8649074262251346</v>
+        <v>0.93245371311256731</v>
       </c>
       <c r="J9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!J9</f>
-        <v>1.8993084554295283</v>
+        <v>0.94965422771476415</v>
       </c>
       <c r="K9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!K9</f>
-        <v>1.8511434240538389</v>
+        <v>0.92557171202691946</v>
       </c>
       <c r="L9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!L9</f>
-        <v>1.9780849009644728</v>
+        <v>0.98904245048223638</v>
       </c>
       <c r="M9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!M9</f>
-        <v>1.9840703061243479</v>
+        <v>0.99203515306217394</v>
       </c>
       <c r="N9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!N9</f>
-        <v>1.8286663553362346</v>
+        <v>0.91433317766811728</v>
       </c>
       <c r="O9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!O9</f>
-        <v>1.8020916100882616</v>
+        <v>0.90104580504413079</v>
       </c>
       <c r="P9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!P9</f>
-        <v>1.5934510320026052</v>
+        <v>0.79672551600130259</v>
       </c>
       <c r="Q9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!Q9</f>
-        <v>1.408608599868306</v>
+        <v>0.704304299934153</v>
       </c>
       <c r="R9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!R9</f>
-        <v>1.4462840643630317</v>
+        <v>0.72314203218151585</v>
       </c>
       <c r="S9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!S9</f>
-        <v>1.5591487936639981</v>
+        <v>0.77957439683199903</v>
       </c>
       <c r="T9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!T9</f>
-        <v>1.5634281672883086</v>
+        <v>0.78171408364415429</v>
       </c>
       <c r="U9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!U9</f>
-        <v>1.5282658411192258</v>
+        <v>0.7641329205596129</v>
       </c>
       <c r="V9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!V9</f>
-        <v>1.4521360965017742</v>
+        <v>0.72606804825088711</v>
       </c>
       <c r="W9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!W9</f>
-        <v>1.3531963836625558</v>
+        <v>0.6765981918312779</v>
       </c>
       <c r="X9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!X9</f>
-        <v>1.0900271637033954</v>
+        <v>0.54501358185169768</v>
       </c>
       <c r="Y9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S2'!Y9</f>
-        <v>0.9445974783265132</v>
+        <v>0.4722987391632566</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -25996,99 +25996,99 @@
       </c>
       <c r="B2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!B2</f>
-        <v>3.7571871176345297</v>
+        <v>3.0057496941076236</v>
       </c>
       <c r="C2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!C2</f>
-        <v>3.6536828528199421</v>
+        <v>2.9229462822559538</v>
       </c>
       <c r="D2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!D2</f>
-        <v>3.6303158294563636</v>
+        <v>2.9042526635650909</v>
       </c>
       <c r="E2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!E2</f>
-        <v>3.7398864119256325</v>
+        <v>2.991909129540506</v>
       </c>
       <c r="F2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!F2</f>
-        <v>3.4918314353707123</v>
+        <v>2.79346514829657</v>
       </c>
       <c r="G2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!G2</f>
-        <v>3.4964821226508667</v>
+        <v>2.7971856981206935</v>
       </c>
       <c r="H2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!H2</f>
-        <v>3.6007700316445455</v>
+        <v>2.8806160253156365</v>
       </c>
       <c r="I2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!I2</f>
-        <v>4.6737870261036267</v>
+        <v>3.7390296208829015</v>
       </c>
       <c r="J2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!J2</f>
-        <v>4.8625737710302346</v>
+        <v>3.8900590168241873</v>
       </c>
       <c r="K2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!K2</f>
-        <v>4.7689648764180106</v>
+        <v>3.8151719011344083</v>
       </c>
       <c r="L2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!L2</f>
-        <v>4.8015602048043551</v>
+        <v>3.8412481638434839</v>
       </c>
       <c r="M2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!M2</f>
-        <v>4.8544017185106574</v>
+        <v>3.883521374808526</v>
       </c>
       <c r="N2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!N2</f>
-        <v>4.6595078569887853</v>
+        <v>3.7276062855910279</v>
       </c>
       <c r="O2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!O2</f>
-        <v>4.7638424061847884</v>
+        <v>3.8110739249478307</v>
       </c>
       <c r="P2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!P2</f>
-        <v>4.1440995166190984</v>
+        <v>3.3152796132952784</v>
       </c>
       <c r="Q2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!Q2</f>
-        <v>4.4584015815081433</v>
+        <v>3.5667212652065148</v>
       </c>
       <c r="R2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!R2</f>
-        <v>4.7521306142951438</v>
+        <v>3.8017044914361149</v>
       </c>
       <c r="S2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!S2</f>
-        <v>4.6797462101416345</v>
+        <v>3.7437969681133074</v>
       </c>
       <c r="T2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!T2</f>
-        <v>4.3942198754148976</v>
+        <v>3.515375900331918</v>
       </c>
       <c r="U2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!U2</f>
-        <v>4.1481390396887408</v>
+        <v>3.3185112317509926</v>
       </c>
       <c r="V2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!V2</f>
-        <v>4.1608627631788897</v>
+        <v>3.3286902105431118</v>
       </c>
       <c r="W2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!W2</f>
-        <v>4.0964279687682978</v>
+        <v>3.2771423750146385</v>
       </c>
       <c r="X2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!X2</f>
-        <v>3.5546018601991318</v>
+        <v>2.8436814881593055</v>
       </c>
       <c r="Y2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!Y2</f>
-        <v>3.5130765593319859</v>
+        <v>2.8104612474655886</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -26097,99 +26097,99 @@
       </c>
       <c r="B3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!B3</f>
-        <v>2.1964389910530997</v>
+        <v>1.6473292432898248</v>
       </c>
       <c r="C3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!C3</f>
-        <v>2.1985923066466704</v>
+        <v>1.6489442299850028</v>
       </c>
       <c r="D3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!D3</f>
-        <v>2.0226477071187419</v>
+        <v>1.5169857803390565</v>
       </c>
       <c r="E3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!E3</f>
-        <v>2.0468364980096196</v>
+        <v>1.5351273735072146</v>
       </c>
       <c r="F3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!F3</f>
-        <v>2.0467294989843743</v>
+        <v>1.5350471242382806</v>
       </c>
       <c r="G3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!G3</f>
-        <v>2.2294662394288141</v>
+        <v>1.6720996795716105</v>
       </c>
       <c r="H3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!H3</f>
-        <v>2.7143489474347633</v>
+        <v>2.0357617105760726</v>
       </c>
       <c r="I3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!I3</f>
-        <v>3.1067617913698342</v>
+        <v>2.3300713435273757</v>
       </c>
       <c r="J3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!J3</f>
-        <v>3.3099245756052329</v>
+        <v>2.4824434317039246</v>
       </c>
       <c r="K3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!K3</f>
-        <v>3.5490754496376695</v>
+        <v>2.6618065872282521</v>
       </c>
       <c r="L3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!L3</f>
-        <v>3.4372394764580694</v>
+        <v>2.577929607343552</v>
       </c>
       <c r="M3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!M3</f>
-        <v>3.4570644175418321</v>
+        <v>2.5927983131563739</v>
       </c>
       <c r="N3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!N3</f>
-        <v>3.2010072404305818</v>
+        <v>2.4007554303229366</v>
       </c>
       <c r="O3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!O3</f>
-        <v>3.106304207127204</v>
+        <v>2.329728155345403</v>
       </c>
       <c r="P3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!P3</f>
-        <v>2.8352219895089177</v>
+        <v>2.1264164921316882</v>
       </c>
       <c r="Q3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!Q3</f>
-        <v>2.9232213502416586</v>
+        <v>2.1924160126812442</v>
       </c>
       <c r="R3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!R3</f>
-        <v>3.2516320961743901</v>
+        <v>2.4387240721307926</v>
       </c>
       <c r="S3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!S3</f>
-        <v>4.0066340548672006</v>
+        <v>3.0049755411504004</v>
       </c>
       <c r="T3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!T3</f>
-        <v>3.778314558941211</v>
+        <v>2.8337359192059082</v>
       </c>
       <c r="U3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!U3</f>
-        <v>3.5598563271131054</v>
+        <v>2.6698922453348288</v>
       </c>
       <c r="V3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!V3</f>
-        <v>3.3495426027113346</v>
+        <v>2.512156952033501</v>
       </c>
       <c r="W3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!W3</f>
-        <v>3.1239138030212668</v>
+        <v>2.34293535226595</v>
       </c>
       <c r="X3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!X3</f>
-        <v>2.9167693650643902</v>
+        <v>2.1875770237982928</v>
       </c>
       <c r="Y3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!Y3</f>
-        <v>2.5800152046283218</v>
+        <v>1.9350114034712413</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -26501,99 +26501,99 @@
       </c>
       <c r="B7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!B7</f>
-        <v>1.3380422422495384</v>
+        <v>0.66902112112476919</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!C7</f>
-        <v>1.2088027633792466</v>
+        <v>0.60440138168962332</v>
       </c>
       <c r="D7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!D7</f>
-        <v>1.1780753593042159</v>
+        <v>0.58903767965210796</v>
       </c>
       <c r="E7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!E7</f>
-        <v>1.2289237404786899</v>
+        <v>0.61446187023934495</v>
       </c>
       <c r="F7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!F7</f>
-        <v>1.2177762044114679</v>
+        <v>0.60888810220573397</v>
       </c>
       <c r="G7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!G7</f>
-        <v>1.3330225043175088</v>
+        <v>0.6665112521587544</v>
       </c>
       <c r="H7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!H7</f>
-        <v>1.5208266586101564</v>
+        <v>0.76041332930507821</v>
       </c>
       <c r="I7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!I7</f>
-        <v>1.8624511377112838</v>
+        <v>0.93122556885564189</v>
       </c>
       <c r="J7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!J7</f>
-        <v>1.9146048609358632</v>
+        <v>0.95730243046793162</v>
       </c>
       <c r="K7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!K7</f>
-        <v>2.0193538421372468</v>
+        <v>1.0096769210686234</v>
       </c>
       <c r="L7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!L7</f>
-        <v>1.9672647343370364</v>
+        <v>0.98363236716851821</v>
       </c>
       <c r="M7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!M7</f>
-        <v>1.9776468626988524</v>
+        <v>0.98882343134942619</v>
       </c>
       <c r="N7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!N7</f>
-        <v>1.9873977460179513</v>
+        <v>0.99369887300897564</v>
       </c>
       <c r="O7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!O7</f>
-        <v>1.9191103555679587</v>
+        <v>0.95955517778397936</v>
       </c>
       <c r="P7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!P7</f>
-        <v>1.8245664728406603</v>
+        <v>0.91228323642033016</v>
       </c>
       <c r="Q7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!Q7</f>
-        <v>1.7926602587707654</v>
+        <v>0.8963301293853827</v>
       </c>
       <c r="R7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!R7</f>
-        <v>1.7917969310586768</v>
+        <v>0.89589846552933838</v>
       </c>
       <c r="S7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!S7</f>
-        <v>1.8226083907620885</v>
+        <v>0.91130419538104424</v>
       </c>
       <c r="T7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!T7</f>
-        <v>1.801510661709085</v>
+        <v>0.90075533085454251</v>
       </c>
       <c r="U7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!U7</f>
-        <v>1.755648975964603</v>
+        <v>0.8778244879823015</v>
       </c>
       <c r="V7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!V7</f>
-        <v>1.6996562256539036</v>
+        <v>0.84982811282695181</v>
       </c>
       <c r="W7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!W7</f>
-        <v>1.6413304408959883</v>
+        <v>0.82066522044799417</v>
       </c>
       <c r="X7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!X7</f>
-        <v>1.5178072244620386</v>
+        <v>0.75890361223101932</v>
       </c>
       <c r="Y7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!Y7</f>
-        <v>1.3824132843925414</v>
+        <v>0.6912066421962707</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -26703,99 +26703,99 @@
       </c>
       <c r="B9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!B9</f>
-        <v>0.76585261462360388</v>
+        <v>0.38292630731180194</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!C9</f>
-        <v>0.74773854294715092</v>
+        <v>0.37386927147357546</v>
       </c>
       <c r="D9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!D9</f>
-        <v>0.72392150218120543</v>
+        <v>0.36196075109060272</v>
       </c>
       <c r="E9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!E9</f>
-        <v>0.72328937756106637</v>
+        <v>0.36164468878053319</v>
       </c>
       <c r="F9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!F9</f>
-        <v>0.75112888791009358</v>
+        <v>0.37556444395504679</v>
       </c>
       <c r="G9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!G9</f>
-        <v>0.91624208043974864</v>
+        <v>0.45812104021987432</v>
       </c>
       <c r="H9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!H9</f>
-        <v>1.5351843497403039</v>
+        <v>0.76759217487015197</v>
       </c>
       <c r="I9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!I9</f>
-        <v>1.7917738016672862</v>
+        <v>0.89588690083364309</v>
       </c>
       <c r="J9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!J9</f>
-        <v>1.8613222863209378</v>
+        <v>0.93066114316046888</v>
       </c>
       <c r="K9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!K9</f>
-        <v>1.8511434240538389</v>
+        <v>0.92557171202691946</v>
       </c>
       <c r="L9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!L9</f>
-        <v>1.9976698999839231</v>
+        <v>0.99883494999196154</v>
       </c>
       <c r="M9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!M9</f>
-        <v>1.9062636274528049</v>
+        <v>0.95313181372640243</v>
       </c>
       <c r="N9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!N9</f>
-        <v>1.8469530188895971</v>
+        <v>0.92347650944479853</v>
       </c>
       <c r="O9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!O9</f>
-        <v>1.8199341012772541</v>
+        <v>0.90996705063862704</v>
       </c>
       <c r="P9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!P9</f>
-        <v>1.5461208033292604</v>
+        <v>0.77306040166463019</v>
       </c>
       <c r="Q9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!Q9</f>
-        <v>1.4512937089552245</v>
+        <v>0.72564685447761224</v>
       </c>
       <c r="R9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!R9</f>
-        <v>1.4901108541922148</v>
+        <v>0.74505542709610739</v>
       </c>
       <c r="S9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!S9</f>
-        <v>1.622787519935998</v>
+        <v>0.81139375996799901</v>
       </c>
       <c r="T9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!T9</f>
-        <v>1.5946967306340747</v>
+        <v>0.79734836531703734</v>
       </c>
       <c r="U9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!U9</f>
-        <v>1.5131344961576494</v>
+        <v>0.75656724807882469</v>
       </c>
       <c r="V9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!V9</f>
-        <v>1.4669538117722005</v>
+        <v>0.73347690588610026</v>
       </c>
       <c r="W9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!W9</f>
-        <v>1.3805336843426073</v>
+        <v>0.69026684217130363</v>
       </c>
       <c r="X9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!X9</f>
-        <v>1.0576501192369578</v>
+        <v>0.52882505961847892</v>
       </c>
       <c r="Y9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,2,FALSE)*'Profiles, Pc, Winter, S3'!Y9</f>
-        <v>0.9445974783265132</v>
+        <v>0.4722987391632566</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -27104,99 +27104,99 @@
       </c>
       <c r="B2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!B2</f>
-        <v>0.71835335961749891</v>
+        <v>0.57468268769399911</v>
       </c>
       <c r="C2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!C2</f>
-        <v>0.50752878574196636</v>
+        <v>0.40602302859357303</v>
       </c>
       <c r="D2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!D2</f>
-        <v>0.43997280749961287</v>
+        <v>0.35197824599969024</v>
       </c>
       <c r="E2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!E2</f>
-        <v>0.56396880607894162</v>
+        <v>0.4511750448631533</v>
       </c>
       <c r="F2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!F2</f>
-        <v>0.48559379740484782</v>
+        <v>0.38847503792387822</v>
       </c>
       <c r="G2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!G2</f>
-        <v>0.39924097264706437</v>
+        <v>0.31939277811765149</v>
       </c>
       <c r="H2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!H2</f>
-        <v>0.33033140849164433</v>
+        <v>0.26426512679331549</v>
       </c>
       <c r="I2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!I2</f>
-        <v>1.154354457709335</v>
+        <v>0.92348356616746785</v>
       </c>
       <c r="J2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!J2</f>
-        <v>1.2072134446914147</v>
+        <v>0.96577075575313176</v>
       </c>
       <c r="K2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!K2</f>
-        <v>1.0354329321353721</v>
+        <v>0.82834634570829779</v>
       </c>
       <c r="L2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!L2</f>
-        <v>1.2063545384966248</v>
+        <v>0.96508363079729986</v>
       </c>
       <c r="M2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!M2</f>
-        <v>1.1209432161066839</v>
+        <v>0.8967545728853471</v>
       </c>
       <c r="N2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!N2</f>
-        <v>1.1258818519500557</v>
+        <v>0.9007054815600446</v>
       </c>
       <c r="O2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!O2</f>
-        <v>1.0053695915957517</v>
+        <v>0.80429567327660134</v>
       </c>
       <c r="P2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!P2</f>
-        <v>0.59659079061358788</v>
+        <v>0.47727263249087032</v>
       </c>
       <c r="Q2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!Q2</f>
-        <v>0.93407794184522963</v>
+        <v>0.74726235347618364</v>
       </c>
       <c r="R2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!R2</f>
-        <v>1.1202824467222634</v>
+        <v>0.89622595737781063</v>
       </c>
       <c r="S2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!S2</f>
-        <v>1.0452937102252209</v>
+        <v>0.83623496818017673</v>
       </c>
       <c r="T2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!T2</f>
-        <v>0.73055716851601948</v>
+        <v>0.58444573481281548</v>
       </c>
       <c r="U2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!U2</f>
-        <v>0.75790966249030167</v>
+        <v>0.60632772999224127</v>
       </c>
       <c r="V2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!V2</f>
-        <v>0.70592663078374041</v>
+        <v>0.56474130462699235</v>
       </c>
       <c r="W2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!W2</f>
-        <v>0.43789196506023775</v>
+        <v>0.35031357204819019</v>
       </c>
       <c r="X2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!X2</f>
-        <v>0.3493091290890874</v>
+        <v>0.27944730327126988</v>
       </c>
       <c r="Y2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!Y2</f>
-        <v>0.36204385234362335</v>
+        <v>0.28963508187489867</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -27205,99 +27205,99 @@
       </c>
       <c r="B3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!B3</f>
-        <v>-1.0884759529685444</v>
+        <v>-0.81635696472640829</v>
       </c>
       <c r="C3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!C3</f>
-        <v>-1.0882359745017474</v>
+        <v>-0.81617698087631063</v>
       </c>
       <c r="D3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!D3</f>
-        <v>-1.1182636585041557</v>
+        <v>-0.8386977438781168</v>
       </c>
       <c r="E3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!E3</f>
-        <v>-1.1694913861783212</v>
+        <v>-0.87711853963374087</v>
       </c>
       <c r="F3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!F3</f>
-        <v>-1.1582606101290369</v>
+        <v>-0.86869545759677769</v>
       </c>
       <c r="G3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!G3</f>
-        <v>-1.0630125080668436</v>
+        <v>-0.79725938105013272</v>
       </c>
       <c r="H3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!H3</f>
-        <v>-0.67403357320370161</v>
+        <v>-0.50552517990277623</v>
       </c>
       <c r="I3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!I3</f>
-        <v>-0.1295685900616485</v>
+        <v>-9.7176442546236391E-2</v>
       </c>
       <c r="J3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!J3</f>
-        <v>-0.139237884600625</v>
+        <v>-0.10442841345046876</v>
       </c>
       <c r="K3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!K3</f>
-        <v>-9.2273882451628667E-2</v>
+        <v>-6.9205411838721503E-2</v>
       </c>
       <c r="L3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!L3</f>
-        <v>-8.1283841558000738E-2</v>
+        <v>-6.0962881168500564E-2</v>
       </c>
       <c r="M3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!M3</f>
-        <v>-0.36276453031782008</v>
+        <v>-0.27207339773836509</v>
       </c>
       <c r="N3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!N3</f>
-        <v>-0.52996001439870799</v>
+        <v>-0.39747001079903099</v>
       </c>
       <c r="O3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!O3</f>
-        <v>-0.68700549031816593</v>
+        <v>-0.51525411773862451</v>
       </c>
       <c r="P3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!P3</f>
-        <v>-0.68184054836160646</v>
+        <v>-0.51138041127120482</v>
       </c>
       <c r="Q3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!Q3</f>
-        <v>-0.69337129749438686</v>
+        <v>-0.52002847312079015</v>
       </c>
       <c r="R3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!R3</f>
-        <v>-0.54515421859443969</v>
+        <v>-0.40886566394582979</v>
       </c>
       <c r="S3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!S3</f>
-        <v>0.17917667928175091</v>
+        <v>0.13438250946131319</v>
       </c>
       <c r="T3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!T3</f>
-        <v>-2.5252220611555937E-2</v>
+        <v>-1.8939165458666953E-2</v>
       </c>
       <c r="U3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!U3</f>
-        <v>-0.29808482049718782</v>
+        <v>-0.22356361537289088</v>
       </c>
       <c r="V3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!V3</f>
-        <v>-0.55254123143544953</v>
+        <v>-0.41440592357658712</v>
       </c>
       <c r="W3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!W3</f>
-        <v>-0.72682202569931553</v>
+        <v>-0.54511651927448668</v>
       </c>
       <c r="X3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!X3</f>
-        <v>-0.79714652631169314</v>
+        <v>-0.59785989473376988</v>
       </c>
       <c r="Y3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!Y3</f>
-        <v>-0.91269464469674599</v>
+        <v>-0.68452098352255952</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -27609,99 +27609,99 @@
       </c>
       <c r="B7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!B7</f>
-        <v>0.1732571981058588</v>
+        <v>8.6628599052929398E-2</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!C7</f>
-        <v>0.13552845066687338</v>
+        <v>6.7764225333436692E-2</v>
       </c>
       <c r="D7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!D7</f>
-        <v>0.10276060476550102</v>
+        <v>5.1380302382750508E-2</v>
       </c>
       <c r="E7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!E7</f>
-        <v>0.15308992203631192</v>
+        <v>7.6544961018155958E-2</v>
       </c>
       <c r="F7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!F7</f>
-        <v>0.12571179847312022</v>
+        <v>6.2855899236560112E-2</v>
       </c>
       <c r="G7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!G7</f>
-        <v>0.18111310706061495</v>
+        <v>9.0556553530307476E-2</v>
       </c>
       <c r="H7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!H7</f>
-        <v>0.24155177779279902</v>
+        <v>0.12077588889639951</v>
       </c>
       <c r="I7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!I7</f>
-        <v>0.47049305159779026</v>
+        <v>0.23524652579889513</v>
       </c>
       <c r="J7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!J7</f>
-        <v>0.54185158414154533</v>
+        <v>0.27092579207077266</v>
       </c>
       <c r="K7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!K7</f>
-        <v>0.55831097968270738</v>
+        <v>0.27915548984135369</v>
       </c>
       <c r="L7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!L7</f>
-        <v>0.52992794065594362</v>
+        <v>0.26496397032797181</v>
       </c>
       <c r="M7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!M7</f>
-        <v>0.56528082671182245</v>
+        <v>0.28264041335591122</v>
       </c>
       <c r="N7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!N7</f>
-        <v>0.56108054678458363</v>
+        <v>0.28054027339229182</v>
       </c>
       <c r="O7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!O7</f>
-        <v>0.55457486239574261</v>
+        <v>0.2772874311978713</v>
       </c>
       <c r="P7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!P7</f>
-        <v>0.46642890200149489</v>
+        <v>0.23321445100074745</v>
       </c>
       <c r="Q7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!Q7</f>
-        <v>0.44367703929325819</v>
+        <v>0.2218385196466291</v>
       </c>
       <c r="R7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!R7</f>
-        <v>0.38561358206444291</v>
+        <v>0.19280679103222145</v>
       </c>
       <c r="S7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!S7</f>
-        <v>0.42184829723167461</v>
+        <v>0.2109241486158373</v>
       </c>
       <c r="T7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!T7</f>
-        <v>0.35758643417574248</v>
+        <v>0.17879321708787124</v>
       </c>
       <c r="U7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!U7</f>
-        <v>0.37315186365846026</v>
+        <v>0.18657593182923013</v>
       </c>
       <c r="V7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!V7</f>
-        <v>0.31549234864827452</v>
+        <v>0.15774617432413726</v>
       </c>
       <c r="W7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!W7</f>
-        <v>0.33210507572742315</v>
+        <v>0.16605253786371157</v>
       </c>
       <c r="X7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!X7</f>
-        <v>0.2061724906375979</v>
+        <v>0.10308624531879895</v>
       </c>
       <c r="Y7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!Y7</f>
-        <v>0.21172890163436306</v>
+        <v>0.10586445081718153</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -27710,99 +27710,99 @@
       </c>
       <c r="B8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!B8</f>
-        <v>-0.51586023417666182</v>
+        <v>-0.25793011708833091</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!C8</f>
-        <v>-0.5102196889674212</v>
+        <v>-0.2551098444837106</v>
       </c>
       <c r="D8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!D8</f>
-        <v>-0.52625027934356694</v>
+        <v>-0.26312513967178347</v>
       </c>
       <c r="E8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!E8</f>
-        <v>-0.53577272850303781</v>
+        <v>-0.2678863642515189</v>
       </c>
       <c r="F8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!F8</f>
-        <v>-0.56750502124399149</v>
+        <v>-0.28375251062199575</v>
       </c>
       <c r="G8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!G8</f>
-        <v>-0.50812055219109464</v>
+        <v>-0.25406027609554732</v>
       </c>
       <c r="H8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!H8</f>
-        <v>-0.43167409038100379</v>
+        <v>-0.2158370451905019</v>
       </c>
       <c r="I8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!I8</f>
-        <v>-0.22422815290399331</v>
+        <v>-0.11211407645199666</v>
       </c>
       <c r="J8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!J8</f>
-        <v>-0.11109952577525646</v>
+        <v>-5.554976288762823E-2</v>
       </c>
       <c r="K8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!K8</f>
-        <v>-0.10312493493550461</v>
+        <v>-5.1562467467752303E-2</v>
       </c>
       <c r="L8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!L8</f>
-        <v>-7.8381505929023834E-2</v>
+        <v>-3.9190752964511917E-2</v>
       </c>
       <c r="M8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!M8</f>
-        <v>-2.6341204807069023E-2</v>
+        <v>-1.3170602403534511E-2</v>
       </c>
       <c r="N8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!N8</f>
-        <v>-0.10694851507206025</v>
+        <v>-5.3474257536030127E-2</v>
       </c>
       <c r="O8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!O8</f>
-        <v>-0.11160312496963658</v>
+        <v>-5.5801562484818289E-2</v>
       </c>
       <c r="P8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!P8</f>
-        <v>-0.2034117565817509</v>
+        <v>-0.10170587829087545</v>
       </c>
       <c r="Q8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!Q8</f>
-        <v>-0.29068312862018852</v>
+        <v>-0.14534156431009426</v>
       </c>
       <c r="R8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!R8</f>
-        <v>-0.26235162692469455</v>
+        <v>-0.13117581346234727</v>
       </c>
       <c r="S8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!S8</f>
-        <v>-0.29262967614190788</v>
+        <v>-0.14631483807095394</v>
       </c>
       <c r="T8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!T8</f>
-        <v>-0.32907615183242439</v>
+        <v>-0.1645380759162122</v>
       </c>
       <c r="U8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!U8</f>
-        <v>-0.31594192048181735</v>
+        <v>-0.15797096024090868</v>
       </c>
       <c r="V8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!V8</f>
-        <v>-0.3597420374938059</v>
+        <v>-0.17987101874690295</v>
       </c>
       <c r="W8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!W8</f>
-        <v>-0.42408686752105312</v>
+        <v>-0.21204343376052656</v>
       </c>
       <c r="X8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!X8</f>
-        <v>-0.47847563256569947</v>
+        <v>-0.23923781628284974</v>
       </c>
       <c r="Y8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!Y8</f>
-        <v>-0.4759310642538786</v>
+        <v>-0.2379655321269393</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -27811,99 +27811,99 @@
       </c>
       <c r="B9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!B9</f>
-        <v>-0.58722579519675355</v>
+        <v>-0.29361289759837678</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!C9</f>
-        <v>-0.59964072688345993</v>
+        <v>-0.29982036344172996</v>
       </c>
       <c r="D9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!D9</f>
-        <v>-0.59726552694044455</v>
+        <v>-0.29863276347022227</v>
       </c>
       <c r="E9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!E9</f>
-        <v>-0.59640725099714353</v>
+        <v>-0.29820362549857177</v>
       </c>
       <c r="F9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!F9</f>
-        <v>-0.58411207107013197</v>
+        <v>-0.29205603553506598</v>
       </c>
       <c r="G9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!G9</f>
-        <v>-0.56050971005691208</v>
+        <v>-0.28025485502845604</v>
       </c>
       <c r="H9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!H9</f>
-        <v>-0.42847703148108796</v>
+        <v>-0.21423851574054398</v>
       </c>
       <c r="I9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!I9</f>
-        <v>-0.3408720773774564</v>
+        <v>-0.1704360386887282</v>
       </c>
       <c r="J9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!J9</f>
-        <v>-0.31476475784880759</v>
+        <v>-0.15738237892440379</v>
       </c>
       <c r="K9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!K9</f>
-        <v>-0.35948450822907235</v>
+        <v>-0.17974225411453618</v>
       </c>
       <c r="L9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!L9</f>
-        <v>-0.33945493610563859</v>
+        <v>-0.1697274680528193</v>
       </c>
       <c r="M9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!M9</f>
-        <v>-0.30943551468373415</v>
+        <v>-0.15471775734186707</v>
       </c>
       <c r="N9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!N9</f>
-        <v>-0.32800803422793723</v>
+        <v>-0.16400401711396861</v>
       </c>
       <c r="O9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!O9</f>
-        <v>-0.35512329487300381</v>
+        <v>-0.17756164743650191</v>
       </c>
       <c r="P9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!P9</f>
-        <v>-0.43147921799642319</v>
+        <v>-0.2157396089982116</v>
       </c>
       <c r="Q9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!Q9</f>
-        <v>-0.47851509066600417</v>
+        <v>-0.23925754533300209</v>
       </c>
       <c r="R9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!R9</f>
-        <v>-0.47724744511147277</v>
+        <v>-0.23862372255573638</v>
       </c>
       <c r="S9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!S9</f>
-        <v>-0.47062898198904518</v>
+        <v>-0.23531449099452259</v>
       </c>
       <c r="T9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!T9</f>
-        <v>-0.49606976038707751</v>
+        <v>-0.24803488019353875</v>
       </c>
       <c r="U9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!U9</f>
-        <v>-0.51292573696340615</v>
+        <v>-0.25646286848170308</v>
       </c>
       <c r="V9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!V9</f>
-        <v>-0.52170801725857086</v>
+        <v>-0.26085400862928543</v>
       </c>
       <c r="W9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!W9</f>
-        <v>-0.5370071496090445</v>
+        <v>-0.26850357480452225</v>
       </c>
       <c r="X9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!X9</f>
-        <v>-0.56044982971770074</v>
+        <v>-0.28022491485885037</v>
       </c>
       <c r="Y9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S1'!Y9</f>
-        <v>-0.57118817433758529</v>
+        <v>-0.28559408716879264</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -28212,99 +28212,99 @@
       </c>
       <c r="B2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!B2</f>
-        <v>0.72553689321367387</v>
+        <v>0.58042951457093916</v>
       </c>
       <c r="C2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!C2</f>
-        <v>0.49737821002712695</v>
+        <v>0.39790256802170154</v>
       </c>
       <c r="D2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!D2</f>
-        <v>0.44437253557460898</v>
+        <v>0.3554980284596872</v>
       </c>
       <c r="E2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!E2</f>
-        <v>0.56396880607894162</v>
+        <v>0.4511750448631533</v>
       </c>
       <c r="F2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!F2</f>
-        <v>0.49044973537889625</v>
+        <v>0.39235978830311696</v>
       </c>
       <c r="G2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!G2</f>
-        <v>0.39924097264706437</v>
+        <v>0.31939277811765149</v>
       </c>
       <c r="H2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!H2</f>
-        <v>0.33033140849164433</v>
+        <v>0.26426512679331549</v>
       </c>
       <c r="I2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!I2</f>
-        <v>1.1658980022864285</v>
+        <v>0.93271840182914267</v>
       </c>
       <c r="J2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!J2</f>
-        <v>1.2072134446914147</v>
+        <v>0.96577075575313176</v>
       </c>
       <c r="K2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!K2</f>
-        <v>1.0147242734926647</v>
+        <v>0.81177941879413174</v>
       </c>
       <c r="L2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!L2</f>
-        <v>1.2063545384966248</v>
+        <v>0.96508363079729986</v>
       </c>
       <c r="M2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!M2</f>
-        <v>1.1433620804288174</v>
+        <v>0.91468966434305388</v>
       </c>
       <c r="N2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!N2</f>
-        <v>1.1371406704695564</v>
+        <v>0.90971253637564498</v>
       </c>
       <c r="O2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!O2</f>
-        <v>1.0154232875117093</v>
+        <v>0.81233863000936735</v>
       </c>
       <c r="P2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!P2</f>
-        <v>0.58465897480131623</v>
+        <v>0.46772717984105294</v>
       </c>
       <c r="Q2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!Q2</f>
-        <v>0.9247371624267775</v>
+        <v>0.73978972994142189</v>
       </c>
       <c r="R2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!R2</f>
-        <v>1.1202824467222634</v>
+        <v>0.89622595737781063</v>
       </c>
       <c r="S2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!S2</f>
-        <v>1.0452937102252209</v>
+        <v>0.83623496818017673</v>
       </c>
       <c r="T2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!T2</f>
-        <v>0.73055716851601948</v>
+        <v>0.58444573481281548</v>
       </c>
       <c r="U2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!U2</f>
-        <v>0.76548875911520464</v>
+        <v>0.61239100729216367</v>
       </c>
       <c r="V2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!V2</f>
-        <v>0.69180809816806554</v>
+        <v>0.55344647853445239</v>
       </c>
       <c r="W2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!W2</f>
-        <v>0.43789196506023775</v>
+        <v>0.35031357204819019</v>
       </c>
       <c r="X2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!X2</f>
-        <v>0.35629531167086909</v>
+        <v>0.28503624933669525</v>
       </c>
       <c r="Y2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!Y2</f>
-        <v>0.36928472939049584</v>
+        <v>0.29542778351239662</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -28313,99 +28313,99 @@
       </c>
       <c r="B3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!B3</f>
-        <v>-1.1102454720279151</v>
+        <v>-0.8326841040209364</v>
       </c>
       <c r="C3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!C3</f>
-        <v>-1.0664712550117124</v>
+        <v>-0.79985344125878433</v>
       </c>
       <c r="D3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!D3</f>
-        <v>-1.1182636585041554</v>
+        <v>-0.83869774387811669</v>
       </c>
       <c r="E3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!E3</f>
-        <v>-1.1461015584547547</v>
+        <v>-0.85957616884106613</v>
       </c>
       <c r="F3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!F3</f>
-        <v>-1.1582606101290369</v>
+        <v>-0.86869545759677769</v>
       </c>
       <c r="G3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!G3</f>
-        <v>-1.0630125080668436</v>
+        <v>-0.79725938105013272</v>
       </c>
       <c r="H3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!H3</f>
-        <v>-0.67403357320370161</v>
+        <v>-0.50552517990277623</v>
       </c>
       <c r="I3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!I3</f>
-        <v>-0.12697721826041555</v>
+        <v>-9.5232913695311672E-2</v>
       </c>
       <c r="J3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!J3</f>
-        <v>-0.13784550575461874</v>
+        <v>-0.10338412931596405</v>
       </c>
       <c r="K3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!K3</f>
-        <v>-9.4119360100661242E-2</v>
+        <v>-7.0589520075495932E-2</v>
       </c>
       <c r="L3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!L3</f>
-        <v>-7.9658164726840744E-2</v>
+        <v>-5.9743623545130554E-2</v>
       </c>
       <c r="M3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!M3</f>
-        <v>-0.36639217562099829</v>
+        <v>-0.27479413171574874</v>
       </c>
       <c r="N3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!N3</f>
-        <v>-0.53525961454269499</v>
+        <v>-0.40144471090702133</v>
       </c>
       <c r="O3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!O3</f>
-        <v>-0.67326538051180262</v>
+        <v>-0.50494903538385205</v>
       </c>
       <c r="P3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!P3</f>
-        <v>-0.68184054836160646</v>
+        <v>-0.51138041127120482</v>
       </c>
       <c r="Q3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!Q3</f>
-        <v>-0.70723872344427463</v>
+        <v>-0.530429042583206</v>
       </c>
       <c r="R3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!R3</f>
-        <v>-0.53425113422255088</v>
+        <v>-0.40068835066691322</v>
       </c>
       <c r="S3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!S3</f>
-        <v>0.18096844607456841</v>
+        <v>0.13572633455592631</v>
       </c>
       <c r="T3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!T3</f>
-        <v>-2.4999698405440376E-2</v>
+        <v>-1.8749773804080282E-2</v>
       </c>
       <c r="U3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!U3</f>
-        <v>-0.29808482049718787</v>
+        <v>-0.22356361537289091</v>
       </c>
       <c r="V3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!V3</f>
-        <v>-0.55806664374980408</v>
+        <v>-0.41854998281235306</v>
       </c>
       <c r="W3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!W3</f>
-        <v>-0.71955380544232228</v>
+        <v>-0.53966535408174177</v>
       </c>
       <c r="X3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!X3</f>
-        <v>-0.78120359578545939</v>
+        <v>-0.58590269683909457</v>
       </c>
       <c r="Y3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!Y3</f>
-        <v>-0.92182159114371354</v>
+        <v>-0.69136619335778515</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -28717,99 +28717,99 @@
       </c>
       <c r="B7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!B7</f>
-        <v>0.17498977008691741</v>
+        <v>8.7494885043458703E-2</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!C7</f>
-        <v>0.13552845066687338</v>
+        <v>6.7764225333436692E-2</v>
       </c>
       <c r="D7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!D7</f>
-        <v>0.10378821081315601</v>
+        <v>5.1894105406578003E-2</v>
       </c>
       <c r="E7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!E7</f>
-        <v>0.15155902281594882</v>
+        <v>7.5779511407974412E-2</v>
       </c>
       <c r="F7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!F7</f>
-        <v>0.12696891645785141</v>
+        <v>6.3484458228925705E-2</v>
       </c>
       <c r="G7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!G7</f>
-        <v>0.18292423813122113</v>
+        <v>9.1462119065610567E-2</v>
       </c>
       <c r="H7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!H7</f>
-        <v>0.23672074223694303</v>
+        <v>0.11836037111847152</v>
       </c>
       <c r="I7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!I7</f>
-        <v>0.46578812108181233</v>
+        <v>0.23289406054090617</v>
       </c>
       <c r="J7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!J7</f>
-        <v>0.55268861582437623</v>
+        <v>0.27634430791218811</v>
       </c>
       <c r="K7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!K7</f>
-        <v>0.56947719927636153</v>
+        <v>0.28473859963818077</v>
       </c>
       <c r="L7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!L7</f>
-        <v>0.52462866124938423</v>
+        <v>0.26231433062469212</v>
       </c>
       <c r="M7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!M7</f>
-        <v>0.5765864432460589</v>
+        <v>0.28829322162302945</v>
       </c>
       <c r="N7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!N7</f>
-        <v>0.55546974131673776</v>
+        <v>0.27773487065836888</v>
       </c>
       <c r="O7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!O7</f>
-        <v>0.5434833651478278</v>
+        <v>0.2717416825739139</v>
       </c>
       <c r="P7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!P7</f>
-        <v>0.47109319102150987</v>
+        <v>0.23554659551075494</v>
       </c>
       <c r="Q7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!Q7</f>
-        <v>0.45255058007912335</v>
+        <v>0.22627529003956168</v>
       </c>
       <c r="R7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!R7</f>
-        <v>0.38561358206444296</v>
+        <v>0.19280679103222148</v>
       </c>
       <c r="S7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!S7</f>
-        <v>0.42184829723167461</v>
+        <v>0.2109241486158373</v>
       </c>
       <c r="T7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!T7</f>
-        <v>0.35043470549222772</v>
+        <v>0.17521735274611386</v>
       </c>
       <c r="U7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!U7</f>
-        <v>0.38061490093162947</v>
+        <v>0.19030745046581474</v>
       </c>
       <c r="V7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!V7</f>
-        <v>0.31549234864827452</v>
+        <v>0.15774617432413726</v>
       </c>
       <c r="W7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!W7</f>
-        <v>0.33874717724197162</v>
+        <v>0.16937358862098581</v>
       </c>
       <c r="X7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!X7</f>
-        <v>0.2061724906375979</v>
+        <v>0.10308624531879895</v>
       </c>
       <c r="Y7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!Y7</f>
-        <v>0.20961161261801942</v>
+        <v>0.10480580630900971</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -28818,99 +28818,99 @@
       </c>
       <c r="B8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!B8</f>
-        <v>-0.51070163183489514</v>
+        <v>-0.25535081591744757</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!C8</f>
-        <v>-0.5102196889674212</v>
+        <v>-0.2551098444837106</v>
       </c>
       <c r="D8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!D8</f>
-        <v>-0.53151278213700259</v>
+        <v>-0.2657563910685013</v>
       </c>
       <c r="E8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!E8</f>
-        <v>-0.54648818307309865</v>
+        <v>-0.27324409153654933</v>
       </c>
       <c r="F8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!F8</f>
-        <v>-0.55615492081911155</v>
+        <v>-0.27807746040955578</v>
       </c>
       <c r="G8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!G8</f>
-        <v>-0.50303934666918371</v>
+        <v>-0.25151967333459185</v>
       </c>
       <c r="H8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!H8</f>
-        <v>-0.42304060857338371</v>
+        <v>-0.21152030428669186</v>
       </c>
       <c r="I8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!I8</f>
-        <v>-0.22647043443303322</v>
+        <v>-0.11323521721651661</v>
       </c>
       <c r="J8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!J8</f>
-        <v>-0.10887753525975133</v>
+        <v>-5.4438767629875665E-2</v>
       </c>
       <c r="K8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!K8</f>
-        <v>-0.10518743363421471</v>
+        <v>-5.2593716817107353E-2</v>
       </c>
       <c r="L8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!L8</f>
-        <v>-7.7597690869733602E-2</v>
+        <v>-3.8798845434866801E-2</v>
       </c>
       <c r="M8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!M8</f>
-        <v>-2.5814380710927644E-2</v>
+        <v>-1.2907190355463822E-2</v>
       </c>
       <c r="N8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!N8</f>
-        <v>-0.10801800022278085</v>
+        <v>-5.4009000111390426E-2</v>
       </c>
       <c r="O8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!O8</f>
-        <v>-0.11271915621933293</v>
+        <v>-5.6359578109666464E-2</v>
       </c>
       <c r="P8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!P8</f>
-        <v>-0.2034117565817509</v>
+        <v>-0.10170587829087545</v>
       </c>
       <c r="Q8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!Q8</f>
-        <v>-0.28486946604778474</v>
+        <v>-0.14243473302389237</v>
       </c>
       <c r="R8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!R8</f>
-        <v>-0.25710459438620065</v>
+        <v>-0.12855229719310032</v>
       </c>
       <c r="S8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!S8</f>
-        <v>-0.29262967614190788</v>
+        <v>-0.14631483807095394</v>
       </c>
       <c r="T8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!T8</f>
-        <v>-0.33565767486907289</v>
+        <v>-0.16782883743453644</v>
       </c>
       <c r="U8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!U8</f>
-        <v>-0.31278250127699919</v>
+        <v>-0.1563912506384996</v>
       </c>
       <c r="V8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!V8</f>
-        <v>-0.35614461711886786</v>
+        <v>-0.17807230855943393</v>
       </c>
       <c r="W8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!W8</f>
-        <v>-0.42408686752105312</v>
+        <v>-0.21204343376052656</v>
       </c>
       <c r="X8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!X8</f>
-        <v>-0.46890611991438558</v>
+        <v>-0.23445305995719279</v>
       </c>
       <c r="Y8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!Y8</f>
-        <v>-0.48069037489641736</v>
+        <v>-0.24034518744820868</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -28919,99 +28919,99 @@
       </c>
       <c r="B9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!B9</f>
-        <v>-0.58722579519675355</v>
+        <v>-0.29361289759837678</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!C9</f>
-        <v>-0.60563713415229448</v>
+        <v>-0.30281856707614724</v>
       </c>
       <c r="D9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!D9</f>
-        <v>-0.58532021640163567</v>
+        <v>-0.29266010820081784</v>
       </c>
       <c r="E9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!E9</f>
-        <v>-0.59640725099714353</v>
+        <v>-0.29820362549857177</v>
       </c>
       <c r="F9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!F9</f>
-        <v>-0.57827095035943055</v>
+        <v>-0.28913547517971527</v>
       </c>
       <c r="G9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!G9</f>
-        <v>-0.55490461295634297</v>
+        <v>-0.27745230647817148</v>
       </c>
       <c r="H9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!H9</f>
-        <v>-0.41990749085146623</v>
+        <v>-0.20995374542573311</v>
       </c>
       <c r="I9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!I9</f>
-        <v>-0.34428079815123097</v>
+        <v>-0.17214039907561549</v>
       </c>
       <c r="J9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!J9</f>
-        <v>-0.32106005300578372</v>
+        <v>-0.16053002650289186</v>
       </c>
       <c r="K9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!K9</f>
-        <v>-0.35229481806449092</v>
+        <v>-0.17614740903224546</v>
       </c>
       <c r="L9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!L9</f>
-        <v>-0.33606038674458222</v>
+        <v>-0.16803019337229111</v>
       </c>
       <c r="M9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!M9</f>
-        <v>-0.30943551468373415</v>
+        <v>-0.15471775734186707</v>
       </c>
       <c r="N9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!N9</f>
-        <v>-0.33456819491249595</v>
+        <v>-0.16728409745624798</v>
       </c>
       <c r="O9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!O9</f>
-        <v>-0.35157206192427376</v>
+        <v>-0.17578603096213688</v>
       </c>
       <c r="P9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!P9</f>
-        <v>-0.42284963363649469</v>
+        <v>-0.21142481681824735</v>
       </c>
       <c r="Q9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!Q9</f>
-        <v>-0.48330024157266427</v>
+        <v>-0.24165012078633213</v>
       </c>
       <c r="R9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!R9</f>
-        <v>-0.46770249620924326</v>
+        <v>-0.23385124810462163</v>
       </c>
       <c r="S9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!S9</f>
-        <v>-0.47062898198904524</v>
+        <v>-0.23531449099452262</v>
       </c>
       <c r="T9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!T9</f>
-        <v>-0.50103045799094836</v>
+        <v>-0.25051522899547418</v>
       </c>
       <c r="U9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!U9</f>
-        <v>-0.51805499433304025</v>
+        <v>-0.25902749716652013</v>
       </c>
       <c r="V9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!V9</f>
-        <v>-0.51127385691339944</v>
+        <v>-0.25563692845669972</v>
       </c>
       <c r="W9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!W9</f>
-        <v>-0.54774729260122546</v>
+        <v>-0.27387364630061273</v>
       </c>
       <c r="X9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!X9</f>
-        <v>-0.54924083312334671</v>
+        <v>-0.27462041656167335</v>
       </c>
       <c r="Y9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S2'!Y9</f>
-        <v>-0.57690005608096107</v>
+        <v>-0.28845002804048053</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -29320,99 +29320,99 @@
       </c>
       <c r="B2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!B2</f>
-        <v>0.72553689321367387</v>
+        <v>0.58042951457093916</v>
       </c>
       <c r="C2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!C2</f>
-        <v>0.5176793614568056</v>
+        <v>0.41414348916544447</v>
       </c>
       <c r="D2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!D2</f>
-        <v>0.43117335134962059</v>
+        <v>0.34493868107969644</v>
       </c>
       <c r="E2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!E2</f>
-        <v>0.55268942995736281</v>
+        <v>0.44215154396589018</v>
       </c>
       <c r="F2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!F2</f>
-        <v>0.49530567335294484</v>
+        <v>0.39624453868235587</v>
       </c>
       <c r="G2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!G2</f>
-        <v>0.3912561531941231</v>
+        <v>0.31300492255529849</v>
       </c>
       <c r="H2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!H2</f>
-        <v>0.33693803666147726</v>
+        <v>0.26955042932918177</v>
       </c>
       <c r="I2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!I2</f>
-        <v>1.1312673685551482</v>
+        <v>0.90501389484411854</v>
       </c>
       <c r="J2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!J2</f>
-        <v>1.2192855791383288</v>
+        <v>0.97542846331066302</v>
       </c>
       <c r="K2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!K2</f>
-        <v>1.0457872614567258</v>
+        <v>0.83662980916538066</v>
       </c>
       <c r="L2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!L2</f>
-        <v>1.2184180838815912</v>
+        <v>0.97473446710527289</v>
       </c>
       <c r="M2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!M2</f>
-        <v>1.1321526482677506</v>
+        <v>0.90572211861420049</v>
       </c>
       <c r="N2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!N2</f>
-        <v>1.1033642149110547</v>
+        <v>0.88269137192884373</v>
       </c>
       <c r="O2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!O2</f>
-        <v>0.99531589567979428</v>
+        <v>0.79625271654383534</v>
       </c>
       <c r="P2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!P2</f>
-        <v>0.60255669851972382</v>
+        <v>0.48204535881577903</v>
       </c>
       <c r="Q2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!Q2</f>
-        <v>0.93407794184522963</v>
+        <v>0.74726235347618364</v>
       </c>
       <c r="R2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!R2</f>
-        <v>1.1314852711894861</v>
+        <v>0.9051882169515888</v>
       </c>
       <c r="S2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!S2</f>
-        <v>1.055746647327473</v>
+        <v>0.84459731786197845</v>
       </c>
       <c r="T2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!T2</f>
-        <v>0.72325159683085927</v>
+        <v>0.57860127746468737</v>
       </c>
       <c r="U2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!U2</f>
-        <v>0.77306785574010783</v>
+        <v>0.61845428459208618</v>
       </c>
       <c r="V2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!V2</f>
-        <v>0.70592663078374041</v>
+        <v>0.56474130462699235</v>
       </c>
       <c r="W2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!W2</f>
-        <v>0.43351304540963542</v>
+        <v>0.3468104363277083</v>
       </c>
       <c r="X2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!X2</f>
-        <v>0.34232294650730566</v>
+        <v>0.2738583572058445</v>
       </c>
       <c r="Y2" s="2">
         <f>VLOOKUP($A2,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!Y2</f>
-        <v>0.36566429086705959</v>
+        <v>0.29253143269364767</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -29421,99 +29421,99 @@
       </c>
       <c r="B3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!B3</f>
-        <v>-1.0993607124982296</v>
+        <v>-0.82452053437367234</v>
       </c>
       <c r="C3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!C3</f>
-        <v>-1.0882359745017474</v>
+        <v>-0.81617698087631052</v>
       </c>
       <c r="D3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!D3</f>
-        <v>-1.1182636585041554</v>
+        <v>-0.83869774387811669</v>
       </c>
       <c r="E3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!E3</f>
-        <v>-1.1811863000401044</v>
+        <v>-0.88588972503007823</v>
       </c>
       <c r="F3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!F3</f>
-        <v>-1.1814258223316176</v>
+        <v>-0.88606936674871328</v>
       </c>
       <c r="G3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!G3</f>
-        <v>-1.073642633147512</v>
+        <v>-0.80523197486063414</v>
       </c>
       <c r="H3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!H3</f>
-        <v>-0.68751424466777566</v>
+        <v>-0.51563568350083178</v>
       </c>
       <c r="I3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!I3</f>
-        <v>-0.12827290416103201</v>
+        <v>-9.6204678120774018E-2</v>
       </c>
       <c r="J3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!J3</f>
-        <v>-0.139237884600625</v>
+        <v>-0.10442841345046876</v>
       </c>
       <c r="K3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!K3</f>
-        <v>-9.0428404802596091E-2</v>
+        <v>-6.7821303601947075E-2</v>
       </c>
       <c r="L3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!L3</f>
-        <v>-7.9658164726840744E-2</v>
+        <v>-5.9743623545130554E-2</v>
       </c>
       <c r="M3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!M3</f>
-        <v>-0.36276453031782008</v>
+        <v>-0.27207339773836509</v>
       </c>
       <c r="N3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!N3</f>
-        <v>-0.52466041425472087</v>
+        <v>-0.39349531069104066</v>
       </c>
       <c r="O3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!O3</f>
-        <v>-0.69387554522134764</v>
+        <v>-0.52040665891601079</v>
       </c>
       <c r="P3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!P3</f>
-        <v>-0.69547735932883847</v>
+        <v>-0.52160801949662894</v>
       </c>
       <c r="Q3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!Q3</f>
-        <v>-0.70723872344427463</v>
+        <v>-0.530429042583206</v>
       </c>
       <c r="R3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!R3</f>
-        <v>-0.53425113422255088</v>
+        <v>-0.40068835066691322</v>
       </c>
       <c r="S3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!S3</f>
-        <v>0.17559314569611587</v>
+        <v>0.13169485927208691</v>
       </c>
       <c r="T3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!T3</f>
-        <v>-2.4999698405440376E-2</v>
+        <v>-1.8749773804080282E-2</v>
       </c>
       <c r="U3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!U3</f>
-        <v>-0.30404651690713164</v>
+        <v>-0.22803488768034871</v>
       </c>
       <c r="V3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!V3</f>
-        <v>-0.54701581912109498</v>
+        <v>-0.41026186434082124</v>
       </c>
       <c r="W3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!W3</f>
-        <v>-0.73409024595630856</v>
+        <v>-0.55056768446723148</v>
       </c>
       <c r="X3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!X3</f>
-        <v>-0.8130894568379271</v>
+        <v>-0.60981709262844541</v>
       </c>
       <c r="Y3" s="2">
         <f>VLOOKUP($A3,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!Y3</f>
-        <v>-0.91269464469674599</v>
+        <v>-0.68452098352255952</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -29825,99 +29825,99 @@
       </c>
       <c r="B7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!B7</f>
-        <v>0.17498977008691741</v>
+        <v>8.7494885043458703E-2</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!C7</f>
-        <v>0.13688373517354213</v>
+        <v>6.8441867586771066E-2</v>
       </c>
       <c r="D7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!D7</f>
-        <v>0.10276060476550103</v>
+        <v>5.1380302382750515E-2</v>
       </c>
       <c r="E7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!E7</f>
-        <v>0.15308992203631192</v>
+        <v>7.6544961018155958E-2</v>
       </c>
       <c r="F7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!F7</f>
-        <v>0.12696891645785141</v>
+        <v>6.3484458228925705E-2</v>
       </c>
       <c r="G7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!G7</f>
-        <v>0.18473536920182723</v>
+        <v>9.2367684600913616E-2</v>
       </c>
       <c r="H7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!H7</f>
-        <v>0.24155177779279902</v>
+        <v>0.12077588889639951</v>
       </c>
       <c r="I7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!I7</f>
-        <v>0.47519798211376818</v>
+        <v>0.23759899105688409</v>
       </c>
       <c r="J7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!J7</f>
-        <v>0.54185158414154533</v>
+        <v>0.27092579207077266</v>
       </c>
       <c r="K7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!K7</f>
-        <v>0.56947719927636153</v>
+        <v>0.28473859963818077</v>
       </c>
       <c r="L7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!L7</f>
-        <v>0.53522722006250312</v>
+        <v>0.26761361003125156</v>
       </c>
       <c r="M7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!M7</f>
-        <v>0.553975210177586</v>
+        <v>0.276987605088793</v>
       </c>
       <c r="N7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!N7</f>
-        <v>0.56108054678458363</v>
+        <v>0.28054027339229182</v>
       </c>
       <c r="O7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!O7</f>
-        <v>0.5490291137717852</v>
+        <v>0.2745145568858926</v>
       </c>
       <c r="P7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!P7</f>
-        <v>0.46176461298147997</v>
+        <v>0.23088230649073999</v>
       </c>
       <c r="Q7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!Q7</f>
-        <v>0.45255058007912335</v>
+        <v>0.22627529003956168</v>
       </c>
       <c r="R7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!R7</f>
-        <v>0.3933258537057317</v>
+        <v>0.19666292685286585</v>
       </c>
       <c r="S7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!S7</f>
-        <v>0.43028526317630816</v>
+        <v>0.21514263158815408</v>
       </c>
       <c r="T7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!T7</f>
-        <v>0.3540105698339851</v>
+        <v>0.17700528491699255</v>
       </c>
       <c r="U7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!U7</f>
-        <v>0.37688338229504487</v>
+        <v>0.18844169114752243</v>
       </c>
       <c r="V7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!V7</f>
-        <v>0.31233742516179186</v>
+        <v>0.15616871258089593</v>
       </c>
       <c r="W7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!W7</f>
-        <v>0.33542612648469738</v>
+        <v>0.16771306324234869</v>
       </c>
       <c r="X7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!X7</f>
-        <v>0.2061724906375979</v>
+        <v>0.10308624531879895</v>
       </c>
       <c r="Y7" s="2">
         <f>VLOOKUP($A7,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!Y7</f>
-        <v>0.20961161261801942</v>
+        <v>0.10480580630900971</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -29926,99 +29926,99 @@
       </c>
       <c r="B8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!B8</f>
-        <v>-0.51586023417666182</v>
+        <v>-0.25793011708833091</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!C8</f>
-        <v>-0.50511749207774703</v>
+        <v>-0.25255874603887352</v>
       </c>
       <c r="D8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!D8</f>
-        <v>-0.51572527375669563</v>
+        <v>-0.25786263687834782</v>
       </c>
       <c r="E8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!E8</f>
-        <v>-0.52505727393297708</v>
+        <v>-0.26252863696648854</v>
       </c>
       <c r="F8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!F8</f>
-        <v>-0.57885512166887132</v>
+        <v>-0.28942756083443566</v>
       </c>
       <c r="G8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!G8</f>
-        <v>-0.50303934666918371</v>
+        <v>-0.25151967333459185</v>
       </c>
       <c r="H8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!H8</f>
-        <v>-0.43599083128481381</v>
+        <v>-0.2179954156424069</v>
       </c>
       <c r="I8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!I8</f>
-        <v>-0.22647043443303322</v>
+        <v>-0.11323521721651661</v>
       </c>
       <c r="J8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!J8</f>
-        <v>-0.11332151629076159</v>
+        <v>-5.6660758145380796E-2</v>
       </c>
       <c r="K8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!K8</f>
-        <v>-0.10415618428485966</v>
+        <v>-5.2078092142429831E-2</v>
       </c>
       <c r="L8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!L8</f>
-        <v>-7.9165320988314081E-2</v>
+        <v>-3.958266049415704E-2</v>
       </c>
       <c r="M8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!M8</f>
-        <v>-2.6604616855139717E-2</v>
+        <v>-1.3302308427569859E-2</v>
       </c>
       <c r="N8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!N8</f>
-        <v>-0.10694851507206027</v>
+        <v>-5.3474257536030134E-2</v>
       </c>
       <c r="O8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!O8</f>
-        <v>-0.11160312496963658</v>
+        <v>-5.5801562484818289E-2</v>
       </c>
       <c r="P8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!P8</f>
-        <v>-0.20747999171338594</v>
+        <v>-0.10373999585669297</v>
       </c>
       <c r="Q8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!Q8</f>
-        <v>-0.29358995990639042</v>
+        <v>-0.14679497995319521</v>
       </c>
       <c r="R8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!R8</f>
-        <v>-0.26235162692469455</v>
+        <v>-0.13117581346234727</v>
       </c>
       <c r="S8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!S8</f>
-        <v>-0.29262967614190788</v>
+        <v>-0.14631483807095394</v>
       </c>
       <c r="T8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!T8</f>
-        <v>-0.32907615183242439</v>
+        <v>-0.1645380759162122</v>
       </c>
       <c r="U8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!U8</f>
-        <v>-0.31910133968663551</v>
+        <v>-0.15955066984331776</v>
       </c>
       <c r="V8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!V8</f>
-        <v>-0.3525471967439297</v>
+        <v>-0.17627359837196485</v>
       </c>
       <c r="W8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!W8</f>
-        <v>-0.43256860487147414</v>
+        <v>-0.21628430243573707</v>
       </c>
       <c r="X8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!X8</f>
-        <v>-0.48804514521701342</v>
+        <v>-0.24402257260850671</v>
       </c>
       <c r="Y8" s="2">
         <f>VLOOKUP($A8,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!Y8</f>
-        <v>-0.48544968553895618</v>
+        <v>-0.24272484276947809</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -30027,99 +30027,99 @@
       </c>
       <c r="B9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!B9</f>
-        <v>-0.581353537244786</v>
+        <v>-0.290676768622393</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!C9</f>
-        <v>-0.59964072688345993</v>
+        <v>-0.29982036344172996</v>
       </c>
       <c r="D9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!D9</f>
-        <v>-0.59726552694044455</v>
+        <v>-0.29863276347022227</v>
       </c>
       <c r="E9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!E9</f>
-        <v>-0.60833539601708642</v>
+        <v>-0.30416769800854321</v>
       </c>
       <c r="F9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!F9</f>
-        <v>-0.58411207107013197</v>
+        <v>-0.29205603553506598</v>
       </c>
       <c r="G9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!G9</f>
-        <v>-0.56611480715748119</v>
+        <v>-0.2830574035787406</v>
       </c>
       <c r="H9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!H9</f>
-        <v>-0.43276180179589885</v>
+        <v>-0.21638090089794942</v>
       </c>
       <c r="I9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!I9</f>
-        <v>-0.33405463582990724</v>
+        <v>-0.16702731791495362</v>
       </c>
       <c r="J9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!J9</f>
-        <v>-0.31476475784880759</v>
+        <v>-0.15738237892440379</v>
       </c>
       <c r="K9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!K9</f>
-        <v>-0.35588966314678167</v>
+        <v>-0.17794483157339083</v>
       </c>
       <c r="L9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!L9</f>
-        <v>-0.34284948546669497</v>
+        <v>-0.17142474273334748</v>
       </c>
       <c r="M9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!M9</f>
-        <v>-0.30943551468373415</v>
+        <v>-0.15471775734186707</v>
       </c>
       <c r="N9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!N9</f>
-        <v>-0.32800803422793723</v>
+        <v>-0.16400401711396861</v>
       </c>
       <c r="O9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!O9</f>
-        <v>-0.35512329487300381</v>
+        <v>-0.17756164743650191</v>
       </c>
       <c r="P9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!P9</f>
-        <v>-0.42284963363649469</v>
+        <v>-0.21142481681824735</v>
       </c>
       <c r="Q9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!Q9</f>
-        <v>-0.47851509066600417</v>
+        <v>-0.23925754533300209</v>
       </c>
       <c r="R9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!R9</f>
-        <v>-0.48679239401370222</v>
+        <v>-0.24339619700685111</v>
       </c>
       <c r="S9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!S9</f>
-        <v>-0.46592269216915472</v>
+        <v>-0.23296134608457736</v>
       </c>
       <c r="T9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!T9</f>
-        <v>-0.50103045799094836</v>
+        <v>-0.25051522899547418</v>
       </c>
       <c r="U9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!U9</f>
-        <v>-0.50779647959377217</v>
+        <v>-0.25389823979688608</v>
       </c>
       <c r="V9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!V9</f>
-        <v>-0.51127385691339944</v>
+        <v>-0.25563692845669972</v>
       </c>
       <c r="W9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!W9</f>
-        <v>-0.52626700661686365</v>
+        <v>-0.26313350330843183</v>
       </c>
       <c r="X9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!X9</f>
-        <v>-0.57165882631205478</v>
+        <v>-0.28582941315602739</v>
       </c>
       <c r="Y9" s="2">
         <f>VLOOKUP($A9,'Base Consumption'!$A$2:$C$9,3,FALSE)*'Profiles, Qc, Winter, S3'!Y9</f>
-        <v>-0.58261193782433696</v>
+        <v>-0.29130596891216848</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B3EEF5-09A6-48C7-9A87-425D3EF64B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4164161E-1F1E-4D93-8925-6F1908FBE29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="2250" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13380" yWindow="6615" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -12117,7 +12117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F800E73-75A4-4D1F-BCBA-6492AF8AC3AA}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:C9"/>
     </sheetView>
   </sheetViews>

--- a/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4164161E-1F1E-4D93-8925-6F1908FBE29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863C06A3-0735-4A58-AA1F-9DDC11688837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13380" yWindow="6615" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>

--- a/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863C06A3-0735-4A58-AA1F-9DDC11688837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E1FE9B-524C-491F-86FC-AD53764FD8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="6615" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="1005" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E1FE9B-524C-491F-86FC-AD53764FD8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C854D55-E67E-45B4-9021-A4FA47B04C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="1005" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1380" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C854D55-E67E-45B4-9021-A4FA47B04C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51425568-3C47-4EB6-9B80-2DC81CD0D537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1380" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="1725" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51425568-3C47-4EB6-9B80-2DC81CD0D537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFD251F-7E28-4E9A-8BF4-91364A89FCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="1725" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="4635" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFD251F-7E28-4E9A-8BF4-91364A89FCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07C6EC9-4268-4BBD-9E2E-38F8C9D1DAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4635" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26940" yWindow="3510" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07C6EC9-4268-4BBD-9E2E-38F8C9D1DAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AC2B4F-68D2-4C54-8EE4-AD4B2C04579B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26940" yWindow="3510" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24855" yWindow="4470" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>

--- a/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AC2B4F-68D2-4C54-8EE4-AD4B2C04579B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1553F45F-E1C5-4F7A-9DEB-D7F0D0A3643A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24855" yWindow="4470" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15225" yWindow="7170" windowWidth="21600" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1553F45F-E1C5-4F7A-9DEB-D7F0D0A3643A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F6F6C3-FB9F-4646-AFC1-57B00792D6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="7170" windowWidth="21600" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-10980" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -443,12 +443,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -464,7 +464,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -485,9 +485,9 @@
       <selection activeCell="A10" sqref="A10:AA21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -564,7 +564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -665,7 +665,7 @@
         <v>4.39186046511628</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -766,7 +766,7 @@
         <v>3.5212053571428568</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -867,7 +867,7 @@
         <v>2.393890675241158</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -968,7 +968,7 @@
         <v>1.4459459459459458</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>2.2921686746987948</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>2.1167563930013458</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>1.7996828752642708</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>1.3282019704433501</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1398,7 +1398,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1424,7 +1424,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1450,7 +1450,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1476,7 +1476,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1502,7 +1502,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1528,7 +1528,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1554,7 +1554,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1593,9 +1593,9 @@
       <selection activeCell="A10" sqref="A10:AB19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>4.4796976744186052</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>3.4507812500000004</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>2.4178295819935696</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>1.4604054054054052</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>2.246325301204819</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>2.1167563930013458</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>1.7636892177589856</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>1.354766009852217</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2506,7 +2506,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2532,7 +2532,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2558,7 +2558,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2584,7 +2584,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2610,7 +2610,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2636,7 +2636,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2662,7 +2662,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2701,9 +2701,9 @@
       <selection activeCell="A10" sqref="A10:Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>4.3479418604651165</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>3.5564174107142854</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>2.3460128617363347</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>1.4314864864864862</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>2.2692469879518065</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>2.1590915208613728</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>1.7636892177589854</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>1.3149199507389167</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -3614,7 +3614,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3640,7 +3640,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3666,7 +3666,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3692,7 +3692,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3718,7 +3718,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3744,7 +3744,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3770,7 +3770,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -3809,9 +3809,9 @@
       <selection activeCell="A10" sqref="A10:AD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>0.70067114093959737</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>-0.56911764705882351</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>-0.6940677966101696</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>-0.12073170731707321</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>0.40078124999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>-0.49891304347826088</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>-0.86225806451612885</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4722,7 +4722,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4748,7 +4748,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4774,7 +4774,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4800,7 +4800,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4826,7 +4826,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4852,7 +4852,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4878,7 +4878,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -4917,9 +4917,9 @@
       <selection activeCell="A10" sqref="A10:AA24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>0.70767785234899339</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>5.6111111111111105E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>-0.58050000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>-0.70794915254237301</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>-0.12073170731707321</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>0.40879687499999995</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>-0.50390217391304348</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>-0.87088064516129016</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5830,7 +5830,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5856,7 +5856,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5882,7 +5882,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -5908,7 +5908,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5934,7 +5934,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5960,7 +5960,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5986,7 +5986,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -6025,9 +6025,9 @@
       <selection activeCell="A10" sqref="A10:Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>0.68665771812080545</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>-0.57480882352941176</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>-0.68712711864406784</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>-0.12193902439024394</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>0.39677343749999994</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>-0.50889130434782615</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>-0.87950322580645146</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -6938,7 +6938,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -6964,7 +6964,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6990,7 +6990,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -7016,7 +7016,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -7042,7 +7042,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -7068,7 +7068,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -7094,7 +7094,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -7133,9 +7133,9 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>0.70971243622868396</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>0.63861762490800034</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>0.53511009596457659</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>0.36820636350319547</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>0.70477394795387305</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>0.6912066421962707</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>0.60793785179243331</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>0.46762251402302635</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>0.59039843457125751</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>0.64212587416348521</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>0.59557117853048036</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>0.93765677855947238</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>0.73009574182105186</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>0.63223349878583146</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8380,9 +8380,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>0.7168095605909709</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>0.64500380115708045</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>0.54581229788386809</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>0.37557049077325932</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>0.71182168743341179</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>0.6912066421962707</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>0.60793785179243331</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>0.4722987391632566</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>0.59630241891697011</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>0.64212587416348521</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>0.58961546674517562</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>0.91890364298828286</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>0.73009574182105186</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>0.62591116379797318</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9627,9 +9627,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>0.70261531186639714</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>0.64500380115708045</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>0.53511009596457659</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>0.37557049077325932</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>0.69067846899479557</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>0.6912066421962707</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>0.59577909475658464</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>0.4722987391632566</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>0.60220640326268271</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>0.64854713290512012</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>0.60748260210108995</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>0.93765677855947227</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>0.71549382698463082</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>0.61958882881011479</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10874,9 +10874,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>0.24136256822908222</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>-0.76057887058062168</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>-0.74768719427812047</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>-0.87127397558460751</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>-0.67170731135451578</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>0.35288150272393842</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>-0.79321844042313105</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>-0.95198029056264211</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>-0.52527525147882725</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>-0.9107438111683438</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>-0.75650510024692541</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>0.53205246818396768</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>0.14991415060084007</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>0.92666222640836626</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12121,9 +12121,9 @@
       <selection activeCell="B7" sqref="B7:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12153,7 +12153,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12185,7 +12185,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12201,7 +12201,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12233,7 +12233,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12249,7 +12249,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12279,9 +12279,9 @@
       <selection activeCell="A17" sqref="A17:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>0.24618981959366387</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12512,7 +12512,7 @@
         <v>-0.76818465928642798</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>-0.73273345039255799</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>-0.87127397558460762</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>-0.67170731135451578</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>0.34935268769669903</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>-0.80115062482736232</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12974,7 +12974,7 @@
         <v>-0.96150009346826848</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>-0.52002249896403896</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>-0.90163637305666033</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>-0.74137499824198683</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>0.53737299286580731</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>0.15291243361285686</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>0.94519547093653355</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13526,9 +13526,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -13605,7 +13605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>0.24377619391137306</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>-0.76057887058062168</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>-0.74768719427812047</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>-0.88869945509629966</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>-0.67842438446806097</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>0.34935268769669903</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>-0.8090828092315937</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>-0.97101989637389496</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>-0.52527525147882725</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>-0.92895868739171061</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>-0.77163520225186388</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -14529,7 +14529,7 @@
         <v>0.5214114188202883</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>0.15291243361285686</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>0.93592884867244985</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14773,9 +14773,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -14852,7 +14852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>0.73197674418604664</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>0.7042410714285714</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15083,7 +15083,7 @@
         <v>0.59847266881028949</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>0.48198198198198194</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15237,7 +15237,7 @@
         <v>0.76405622489959824</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15314,7 +15314,7 @@
         <v>0.705585464333782</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15391,7 +15391,7 @@
         <v>0.59989429175475695</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>0.44273399014778336</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>0.81091370558375642</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15622,7 +15622,7 @@
         <v>0.70228494623655902</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15699,7 +15699,7 @@
         <v>0.64897260273972601</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15776,7 +15776,7 @@
         <v>0.65373760837298645</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15853,7 +15853,7 @@
         <v>0.77794117647058825</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15930,7 +15930,7 @@
         <v>0.66329172899587896</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -16020,9 +16020,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16176,7 +16176,7 @@
         <v>0.74661627906976757</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>0.69015625000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16330,7 +16330,7 @@
         <v>0.60445739549839239</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16407,7 +16407,7 @@
         <v>0.48680180180180171</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16484,7 +16484,7 @@
         <v>0.74877510040160633</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16561,7 +16561,7 @@
         <v>0.705585464333782</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>0.58789640591966186</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16715,7 +16715,7 @@
         <v>0.45158866995073899</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>0.80280456852791882</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16869,7 +16869,7 @@
         <v>0.70930779569892466</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16946,7 +16946,7 @@
         <v>0.64248287671232873</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17023,7 +17023,7 @@
         <v>0.66027498445671629</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -17100,7 +17100,7 @@
         <v>0.77794117647058825</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17177,7 +17177,7 @@
         <v>0.66329172899587907</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17267,9 +17267,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -17346,7 +17346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17423,7 +17423,7 @@
         <v>0.72465697674418617</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>0.71128348214285708</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17577,7 +17577,7 @@
         <v>0.58650321543408368</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17654,7 +17654,7 @@
         <v>0.47716216216216212</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -17731,7 +17731,7 @@
         <v>0.75641566265060223</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -17808,7 +17808,7 @@
         <v>0.7196971736204576</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>0.58789640591966175</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -17962,7 +17962,7 @@
         <v>0.43830665024630555</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -18039,7 +18039,7 @@
         <v>0.81902284263959402</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -18116,7 +18116,7 @@
         <v>0.69526209677419337</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>0.64897260273972601</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -18270,7 +18270,7 @@
         <v>0.64720023228925661</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -18347,7 +18347,7 @@
         <v>0.79349999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -18424,7 +18424,7 @@
         <v>0.65665881170592011</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -18514,9 +18514,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -18593,7 +18593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>0.389261744966443</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18747,7 +18747,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18824,7 +18824,7 @@
         <v>-0.47426470588235292</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18901,7 +18901,7 @@
         <v>-0.77118644067796616</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>-0.13414634146341467</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -19055,7 +19055,7 @@
         <v>0.44531249999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -19132,7 +19132,7 @@
         <v>-0.55434782608695654</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -19209,7 +19209,7 @@
         <v>-0.9580645161290321</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -19286,7 +19286,7 @@
         <v>-8.3333333333333343E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -19363,7 +19363,7 @@
         <v>-0.59259259259259267</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -19440,7 +19440,7 @@
         <v>-0.65322580645161299</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -19517,7 +19517,7 @@
         <v>-0.3045045709648892</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -19594,7 +19594,7 @@
         <v>0.19047619047619047</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -19671,7 +19671,7 @@
         <v>0.85416666666666674</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -19761,9 +19761,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -19840,7 +19840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19917,7 +19917,7 @@
         <v>0.39315436241610741</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19994,7 +19994,7 @@
         <v>3.7407407407407403E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20071,7 +20071,7 @@
         <v>-0.48375000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -20148,7 +20148,7 @@
         <v>-0.78661016949152551</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -20225,7 +20225,7 @@
         <v>-0.13414634146341467</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -20302,7 +20302,7 @@
         <v>0.45421874999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -20379,7 +20379,7 @@
         <v>-0.55989130434782608</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -20456,7 +20456,7 @@
         <v>-0.96764516129032241</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -20533,7 +20533,7 @@
         <v>-8.1666666666666679E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -20610,7 +20610,7 @@
         <v>-0.59851851851851867</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -20687,7 +20687,7 @@
         <v>-0.65322580645161299</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -20764,7 +20764,7 @@
         <v>-0.3045045709648892</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>0.19238095238095237</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -20918,7 +20918,7 @@
         <v>0.84562500000000018</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -21008,9 +21008,9 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -21087,7 +21087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21164,7 +21164,7 @@
         <v>0.38147651006711414</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21241,7 +21241,7 @@
         <v>3.6666666666666667E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21318,7 +21318,7 @@
         <v>-0.47900735294117647</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -21395,7 +21395,7 @@
         <v>-0.76347457627118642</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -21472,7 +21472,7 @@
         <v>-0.13548780487804882</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -21549,7 +21549,7 @@
         <v>0.44085937499999994</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -21626,7 +21626,7 @@
         <v>-0.56543478260869573</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -21703,7 +21703,7 @@
         <v>-0.97722580645161272</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -21780,7 +21780,7 @@
         <v>-8.1666666666666679E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -21857,7 +21857,7 @@
         <v>-0.58666666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -21934,7 +21934,7 @@
         <v>-0.66629032258064524</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -22011,7 +22011,7 @@
         <v>-0.29841447954559142</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -22088,7 +22088,7 @@
         <v>0.18666666666666665</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -22165,7 +22165,7 @@
         <v>0.87125000000000019</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -22255,12 +22255,12 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -22337,7 +22337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -22414,7 +22414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -22491,7 +22491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -22568,7 +22568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -22645,7 +22645,7 @@
         <v>0.63471890742191872</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -22722,7 +22722,7 @@
         <v>0.32574729426179294</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -22812,12 +22812,12 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -22894,7 +22894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -22971,7 +22971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -23048,7 +23048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -23125,7 +23125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -23202,7 +23202,7 @@
         <v>0.48238636964065829</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -23279,7 +23279,7 @@
         <v>0.22802310598325504</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -23369,12 +23369,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -23451,7 +23451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -23528,7 +23528,7 @@
         <v>0.90104000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -23605,7 +23605,7 @@
         <v>-1.9595199999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -23695,9 +23695,9 @@
       <selection activeCell="B2" sqref="B2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -23774,7 +23774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23875,7 +23875,7 @@
         <v>4.2582746173721038</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23976,7 +23976,7 @@
         <v>3.1930881245400018</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -24077,7 +24077,7 @@
         <v>2.1404403838583064</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -24178,7 +24178,7 @@
         <v>1.1046190905095865</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -24279,7 +24279,7 @@
         <v>2.1143218438616191</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -24380,7 +24380,7 @@
         <v>2.0736199265888122</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -24481,7 +24481,7 @@
         <v>1.8238135553773001</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -24582,7 +24582,7 @@
         <v>1.402867542069079</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -24608,7 +24608,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -24634,7 +24634,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -24660,7 +24660,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -24686,7 +24686,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -24712,7 +24712,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -24738,7 +24738,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -24764,7 +24764,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -24803,9 +24803,9 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -24882,7 +24882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -24983,7 +24983,7 @@
         <v>4.3008573635458252</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -25084,7 +25084,7 @@
         <v>3.225019005785402</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -25185,7 +25185,7 @@
         <v>2.1832491915354724</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -25286,7 +25286,7 @@
         <v>1.126711472319778</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -25387,7 +25387,7 @@
         <v>2.1354650623002351</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -25488,7 +25488,7 @@
         <v>2.0736199265888122</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -25589,7 +25589,7 @@
         <v>1.8238135553773001</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -25690,7 +25690,7 @@
         <v>1.4168962174897697</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -25716,7 +25716,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -25742,7 +25742,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -25768,7 +25768,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -25794,7 +25794,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -25820,7 +25820,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -25846,7 +25846,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -25872,7 +25872,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -25911,9 +25911,9 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -25990,7 +25990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26091,7 +26091,7 @@
         <v>4.2156918711983824</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -26192,7 +26192,7 @@
         <v>3.225019005785402</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -26293,7 +26293,7 @@
         <v>2.1404403838583064</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -26394,7 +26394,7 @@
         <v>1.126711472319778</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -26495,7 +26495,7 @@
         <v>2.0720354069843867</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -26596,7 +26596,7 @@
         <v>2.0736199265888122</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -26697,7 +26697,7 @@
         <v>1.7873372842697539</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -26798,7 +26798,7 @@
         <v>1.4168962174897697</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -26824,7 +26824,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -26850,7 +26850,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -26876,7 +26876,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -26902,7 +26902,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -26928,7 +26928,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -26954,7 +26954,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -26980,7 +26980,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -27019,9 +27019,9 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -27098,7 +27098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27199,7 +27199,7 @@
         <v>0.43445262281234803</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -27300,7 +27300,7 @@
         <v>-1.1408683058709326</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -27401,7 +27401,7 @@
         <v>-0.89722463313374456</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -27502,7 +27502,7 @@
         <v>-0.78414657802614673</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -27603,7 +27603,7 @@
         <v>-0.6045365802190642</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -27704,7 +27704,7 @@
         <v>0.31759335245154457</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -27805,7 +27805,7 @@
         <v>-0.71389659638081793</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -27906,7 +27906,7 @@
         <v>-0.85678226150637793</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -27932,7 +27932,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -27958,7 +27958,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -27984,7 +27984,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -28010,7 +28010,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -28036,7 +28036,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -28062,7 +28062,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -28088,7 +28088,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -28127,9 +28127,9 @@
       <selection activeCell="A10" sqref="A10:Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -28206,7 +28206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -28307,7 +28307,7 @@
         <v>0.44314167526859499</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -28408,7 +28408,7 @@
         <v>-1.152276988929642</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -28509,7 +28509,7 @@
         <v>-0.87928014047106962</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -28610,7 +28610,7 @@
         <v>-0.78414657802614685</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -28711,7 +28711,7 @@
         <v>-0.6045365802190642</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -28812,7 +28812,7 @@
         <v>0.31441741892702912</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -28913,7 +28913,7 @@
         <v>-0.72103556234462607</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -29014,7 +29014,7 @@
         <v>-0.86535008412144165</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -29040,7 +29040,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -29066,7 +29066,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -29092,7 +29092,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -29118,7 +29118,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -29144,7 +29144,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -29170,7 +29170,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -29196,7 +29196,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -29235,9 +29235,9 @@
       <selection activeCell="A10" sqref="A10:AB18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -29314,7 +29314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -29415,7 +29415,7 @@
         <v>0.43879714904047151</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -29516,7 +29516,7 @@
         <v>-1.1408683058709326</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -29617,7 +29617,7 @@
         <v>-0.89722463313374456</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -29718,7 +29718,7 @@
         <v>-0.79982950958666976</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -29819,7 +29819,7 @@
         <v>-0.61058194602125493</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -29920,7 +29920,7 @@
         <v>0.31441741892702912</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -30021,7 +30021,7 @@
         <v>-0.72817452830843432</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -30122,7 +30122,7 @@
         <v>-0.87391790673650549</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -30148,7 +30148,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -30174,7 +30174,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -30200,7 +30200,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -30226,7 +30226,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -30252,7 +30252,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -30278,7 +30278,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -30304,7 +30304,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>

--- a/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F6F6C3-FB9F-4646-AFC1-57B00792D6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC586E6C-BA8B-406E-A10E-54C4089833AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-10980" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
